--- a/QTOCostEstimation/Lot 13.xlsx
+++ b/QTOCostEstimation/Lot 13.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
-    <sheet name="CSFI" sheetId="3" r:id="rId1"/>
+    <sheet name="BQFA" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -739,6 +739,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -747,7 +748,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5401,8 +5401,8 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="G3" s="50" t="s">
         <v>71</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="G7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="56" t="e">
+      <c r="H7" s="54" t="e">
         <f>E64/H3</f>
         <v>#DIV/0!</v>
       </c>

--- a/QTOCostEstimation/Lot 13.xlsx
+++ b/QTOCostEstimation/Lot 13.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\AppData\Roaming\Autodesk\Revit\Addins\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tool-Deployment-Order\QTOCostEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Total Budget Amount</t>
   </si>
   <si>
     <t>Lot #</t>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Location Low End Sq. Ft. </t>
+  </si>
+  <si>
+    <t>BQFA Budget</t>
   </si>
 </sst>
 </file>
@@ -5351,7 +5351,7 @@
   <dimension ref="A1:J598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="49" t="s">
         <v>2</v>
@@ -5392,7 +5392,7 @@
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="G2" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="51"/>
       <c r="I2" s="47"/>
@@ -5404,7 +5404,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="G3" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="51"/>
       <c r="I3" s="47"/>
@@ -5412,7 +5412,7 @@
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="G4" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="53">
         <f>E64</f>
@@ -5435,10 +5435,10 @@
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="42">
         <v>350</v>
@@ -5448,16 +5448,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="C6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="29" t="e">
         <f>F6/$E$64</f>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="41">
         <v>175</v>
@@ -5484,10 +5484,10 @@
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="29" t="e">
         <f t="shared" ref="E7:E62" si="1">F7/$E$64</f>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H7" s="54" t="e">
         <f>E64/H3</f>
@@ -5515,10 +5515,10 @@
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5528,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="42">
         <v>207</v>
@@ -5545,10 +5545,10 @@
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="C9" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="33" t="e">
         <f>H7*0.89</f>
@@ -5576,10 +5576,10 @@
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5599,10 +5599,10 @@
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5622,10 +5622,10 @@
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="C12" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5645,10 +5645,10 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5671,10 +5671,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5697,10 +5697,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="C15" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5723,10 +5723,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5749,10 +5749,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5775,10 +5775,10 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="C18" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5801,10 +5801,10 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5827,10 +5827,10 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="C20" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5853,10 +5853,10 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5879,10 +5879,10 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="C22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5905,10 +5905,10 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="C23" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5931,10 +5931,10 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="C24" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5957,10 +5957,10 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="C25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="29" t="e">
         <f t="shared" si="1"/>
@@ -5983,10 +5983,10 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="C26" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6009,10 +6009,10 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6035,10 +6035,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="C28" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6061,10 +6061,10 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6087,10 +6087,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="C30" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6113,10 +6113,10 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="C31" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6139,10 +6139,10 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="C32" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6165,10 +6165,10 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="C33" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6191,10 +6191,10 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="C34" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6217,10 +6217,10 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="C35" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6243,10 +6243,10 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="C36" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6269,10 +6269,10 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="C37" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6295,10 +6295,10 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="C38" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6321,10 +6321,10 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="C39" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6347,10 +6347,10 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="C40" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6373,10 +6373,10 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="C41" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E41" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6399,10 +6399,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="C42" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6425,10 +6425,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="C43" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6451,10 +6451,10 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="C44" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6477,10 +6477,10 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="C45" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6503,10 +6503,10 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="C46" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6529,10 +6529,10 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="C47" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6555,10 +6555,10 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="C48" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6581,10 +6581,10 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="C49" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6607,10 +6607,10 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="C50" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6633,10 +6633,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6659,10 +6659,10 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6685,10 +6685,10 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6711,10 +6711,10 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6737,10 +6737,10 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6763,10 +6763,10 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6789,10 +6789,10 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6815,10 +6815,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="C58" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6841,10 +6841,10 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="C59" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6867,10 +6867,10 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="C60" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6893,10 +6893,10 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="C61" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6919,10 +6919,10 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="C62" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="29" t="e">
         <f t="shared" si="1"/>
@@ -6945,7 +6945,7 @@
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="D63" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="30" t="e">
         <f>SUM(E6:E62)</f>
@@ -6958,7 +6958,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D64" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="26">
         <f>SUM(F6:F62)</f>

--- a/QTOCostEstimation/Lot 13.xlsx
+++ b/QTOCostEstimation/Lot 13.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Application #:</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>BQFA Budget</t>
   </si>
+  <si>
+    <t>Cost Range</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -580,13 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,9 +758,16 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1003,7 +1024,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
@@ -5348,10 +5369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J598"/>
+  <dimension ref="A1:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E6" sqref="E6:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5359,68 +5380,70 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="5" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="5" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="G1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="48"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
-      <c r="G2" s="50" t="s">
+      <c r="H2" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="51"/>
+      <c r="J2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
-      <c r="G3" s="50" t="s">
+      <c r="F3" s="57"/>
+      <c r="H3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="51"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
-      <c r="G4" s="50" t="s">
+      <c r="H4" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="53">
-        <f>E64</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="53">
+        <f>F64</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -5433,25 +5456,28 @@
       <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="H5" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="42">
+      <c r="I5" s="42">
         <v>350</v>
       </c>
-      <c r="I5" s="40">
-        <f>H5*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="40">
+        <f>I5*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="C6" s="16" t="s">
         <v>9</v>
@@ -5459,29 +5485,30 @@
       <c r="D6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="29" t="e">
-        <f>F6/$E$64</f>
+      <c r="E6" s="58"/>
+      <c r="F6" s="29" t="e">
+        <f>G6/$F$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="41">
+      <c r="I6" s="41">
         <v>175</v>
       </c>
-      <c r="I6" s="38">
-        <f>H3*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <f t="shared" ref="J6:J37" si="0">$H$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="38">
+        <f>I3*I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <f t="shared" ref="K6:K37" si="0">$I$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="C7" s="16" t="s">
         <v>11</v>
@@ -5489,30 +5516,31 @@
       <c r="D7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="29" t="e">
-        <f t="shared" ref="E7:E62" si="1">F7/$E$64</f>
+      <c r="E7" s="58"/>
+      <c r="F7" s="29" t="e">
+        <f t="shared" ref="F7:F62" si="1">G7/$F$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="54" t="e">
-        <f>E64/H3</f>
+      <c r="I7" s="54" t="e">
+        <f>F64/I3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="37" t="e">
-        <f>H3*H7</f>
+      <c r="J7" s="37" t="e">
+        <f>I3*I7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="21">
+      <c r="K7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="C8" s="16" t="s">
         <v>12</v>
@@ -5520,29 +5548,30 @@
       <c r="D8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="29" t="e">
+      <c r="E8" s="58"/>
+      <c r="F8" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="17">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="42">
+      <c r="I8" s="42">
         <v>207</v>
       </c>
-      <c r="I8" s="39">
-        <f>H3*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
+      <c r="J8" s="39">
+        <f>I3*I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="C9" s="16" t="s">
         <v>13</v>
@@ -5550,30 +5579,31 @@
       <c r="D9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="29" t="e">
+      <c r="E9" s="58"/>
+      <c r="F9" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="33" t="e">
-        <f>H7*0.89</f>
+      <c r="I9" s="33" t="e">
+        <f>I7*0.89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="36" t="e">
-        <f>H3*H9</f>
+      <c r="J9" s="36" t="e">
+        <f>I3*I9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="21">
+      <c r="K9" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="C10" s="16" t="s">
         <v>14</v>
@@ -5581,22 +5611,23 @@
       <c r="D10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="e">
+      <c r="E10" s="58"/>
+      <c r="F10" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="21">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
@@ -5604,22 +5635,23 @@
       <c r="D11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="29" t="e">
+      <c r="E11" s="58"/>
+      <c r="F11" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="21">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -5627,22 +5659,23 @@
       <c r="D12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="29" t="e">
+      <c r="E12" s="58"/>
+      <c r="F12" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="21">
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -5650,25 +5683,26 @@
       <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="29" t="e">
+      <c r="E13" s="58"/>
+      <c r="F13" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20">
-        <f t="shared" ref="I13:I44" si="2">$D$1</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20">
+        <f t="shared" ref="J13:J44" si="2">$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="C14" s="16" t="s">
         <v>18</v>
@@ -5676,25 +5710,26 @@
       <c r="D14" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="29" t="e">
+      <c r="E14" s="58"/>
+      <c r="F14" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20">
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="21">
+      <c r="K14" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="C15" s="16" t="s">
         <v>19</v>
@@ -5702,25 +5737,26 @@
       <c r="D15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="29" t="e">
+      <c r="E15" s="58"/>
+      <c r="F15" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20">
+      <c r="G15" s="17">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J15" s="21">
+      <c r="K15" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="C16" s="16" t="s">
         <v>20</v>
@@ -5728,25 +5764,26 @@
       <c r="D16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="29" t="e">
+      <c r="E16" s="58"/>
+      <c r="F16" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20">
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="21">
+      <c r="K16" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="C17" s="16" t="s">
         <v>21</v>
@@ -5754,25 +5791,26 @@
       <c r="D17" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="29" t="e">
+      <c r="E17" s="58"/>
+      <c r="F17" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20">
+      <c r="G17" s="17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="21">
+      <c r="K17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="C18" s="16" t="s">
         <v>22</v>
@@ -5780,25 +5818,26 @@
       <c r="D18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="29" t="e">
+      <c r="E18" s="58"/>
+      <c r="F18" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20">
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="21">
+      <c r="K18" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="C19" s="16" t="s">
         <v>23</v>
@@ -5806,25 +5845,26 @@
       <c r="D19" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="29" t="e">
+      <c r="E19" s="58"/>
+      <c r="F19" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20">
+      <c r="G19" s="17">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="21">
+      <c r="K19" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="C20" s="16" t="s">
         <v>24</v>
@@ -5832,25 +5872,26 @@
       <c r="D20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="29" t="e">
+      <c r="E20" s="58"/>
+      <c r="F20" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J20" s="21">
+      <c r="K20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -5858,25 +5899,26 @@
       <c r="D21" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="29" t="e">
+      <c r="E21" s="58"/>
+      <c r="F21" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20">
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="21">
+      <c r="K21" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="C22" s="16" t="s">
         <v>26</v>
@@ -5884,25 +5926,26 @@
       <c r="D22" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="29" t="e">
+      <c r="E22" s="58"/>
+      <c r="F22" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20">
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="21">
+      <c r="K22" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="C23" s="16" t="s">
         <v>27</v>
@@ -5910,25 +5953,26 @@
       <c r="D23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="29" t="e">
+      <c r="E23" s="58"/>
+      <c r="F23" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20">
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="21">
+      <c r="K23" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="C24" s="16" t="s">
         <v>28</v>
@@ -5936,25 +5980,26 @@
       <c r="D24" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="29" t="e">
+      <c r="E24" s="58"/>
+      <c r="F24" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20">
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J24" s="21">
+      <c r="K24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="C25" s="16" t="s">
         <v>29</v>
@@ -5962,25 +6007,26 @@
       <c r="D25" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="29" t="e">
+      <c r="E25" s="58"/>
+      <c r="F25" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20">
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="21">
+      <c r="K25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="C26" s="16" t="s">
         <v>30</v>
@@ -5988,25 +6034,26 @@
       <c r="D26" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="29" t="e">
+      <c r="E26" s="58"/>
+      <c r="F26" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20">
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="21">
+      <c r="K26" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="C27" s="16" t="s">
         <v>31</v>
@@ -6014,25 +6061,26 @@
       <c r="D27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="29" t="e">
+      <c r="E27" s="58"/>
+      <c r="F27" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20">
+      <c r="G27" s="17">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J27" s="21">
+      <c r="K27" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="C28" s="16" t="s">
         <v>32</v>
@@ -6040,25 +6088,26 @@
       <c r="D28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="29" t="e">
+      <c r="E28" s="58"/>
+      <c r="F28" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20">
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="21">
+      <c r="K28" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="C29" s="16" t="s">
         <v>33</v>
@@ -6066,25 +6115,26 @@
       <c r="D29" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="29" t="e">
+      <c r="E29" s="58"/>
+      <c r="F29" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20">
+      <c r="G29" s="17">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="21">
+      <c r="K29" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="C30" s="16" t="s">
         <v>34</v>
@@ -6092,25 +6142,26 @@
       <c r="D30" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="29" t="e">
+      <c r="E30" s="58"/>
+      <c r="F30" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20">
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J30" s="21">
+      <c r="K30" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="C31" s="16" t="s">
         <v>35</v>
@@ -6118,25 +6169,26 @@
       <c r="D31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="29" t="e">
+      <c r="E31" s="58"/>
+      <c r="F31" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20">
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="21">
+      <c r="K31" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="C32" s="16" t="s">
         <v>36</v>
@@ -6144,25 +6196,26 @@
       <c r="D32" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="29" t="e">
+      <c r="E32" s="58"/>
+      <c r="F32" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20">
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J32" s="21">
+      <c r="K32" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="C33" s="16" t="s">
         <v>37</v>
@@ -6170,25 +6223,26 @@
       <c r="D33" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="29" t="e">
+      <c r="E33" s="58"/>
+      <c r="F33" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20">
+      <c r="G33" s="17">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J33" s="21">
+      <c r="K33" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="C34" s="16" t="s">
         <v>38</v>
@@ -6196,25 +6250,26 @@
       <c r="D34" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="29" t="e">
+      <c r="E34" s="58"/>
+      <c r="F34" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20">
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J34" s="21">
+      <c r="K34" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="C35" s="16" t="s">
         <v>39</v>
@@ -6222,25 +6277,26 @@
       <c r="D35" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="29" t="e">
+      <c r="E35" s="58"/>
+      <c r="F35" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20">
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J35" s="21">
+      <c r="K35" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="C36" s="16" t="s">
         <v>40</v>
@@ -6248,25 +6304,26 @@
       <c r="D36" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="29" t="e">
+      <c r="E36" s="58"/>
+      <c r="F36" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20">
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J36" s="21">
+      <c r="K36" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="C37" s="16" t="s">
         <v>41</v>
@@ -6274,25 +6331,26 @@
       <c r="D37" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="29" t="e">
+      <c r="E37" s="58"/>
+      <c r="F37" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20">
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J37" s="21">
+      <c r="K37" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="C38" s="16" t="s">
         <v>42</v>
@@ -6300,25 +6358,26 @@
       <c r="D38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="29" t="e">
+      <c r="E38" s="58"/>
+      <c r="F38" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20">
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J38" s="21">
-        <f t="shared" ref="J38:J62" si="3">$H$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="21">
+        <f t="shared" ref="K38:K62" si="3">$I$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="C39" s="16" t="s">
         <v>43</v>
@@ -6326,25 +6385,26 @@
       <c r="D39" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="29" t="e">
+      <c r="E39" s="58"/>
+      <c r="F39" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20">
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J39" s="21">
+      <c r="K39" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="C40" s="16" t="s">
         <v>44</v>
@@ -6352,25 +6412,26 @@
       <c r="D40" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="29" t="e">
+      <c r="E40" s="58"/>
+      <c r="F40" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20">
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J40" s="21">
+      <c r="K40" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="C41" s="16" t="s">
         <v>45</v>
@@ -6378,25 +6439,26 @@
       <c r="D41" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="29" t="e">
+      <c r="E41" s="58"/>
+      <c r="F41" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20">
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J41" s="21">
+      <c r="K41" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="C42" s="16" t="s">
         <v>46</v>
@@ -6404,25 +6466,26 @@
       <c r="D42" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="29" t="e">
+      <c r="E42" s="58"/>
+      <c r="F42" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20">
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="21">
+      <c r="K42" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="C43" s="16" t="s">
         <v>47</v>
@@ -6430,25 +6493,26 @@
       <c r="D43" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="29" t="e">
+      <c r="E43" s="58"/>
+      <c r="F43" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="17">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="20">
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J43" s="21">
+      <c r="K43" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="C44" s="16" t="s">
         <v>48</v>
@@ -6456,25 +6520,26 @@
       <c r="D44" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="29" t="e">
+      <c r="E44" s="58"/>
+      <c r="F44" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20">
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J44" s="21">
+      <c r="K44" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="C45" s="16" t="s">
         <v>49</v>
@@ -6482,25 +6547,26 @@
       <c r="D45" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="29" t="e">
+      <c r="E45" s="58"/>
+      <c r="F45" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="17">
-        <v>0</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20">
-        <f t="shared" ref="I45:I62" si="4">$D$1</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="21">
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20">
+        <f t="shared" ref="J45:J62" si="4">$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="C46" s="16" t="s">
         <v>50</v>
@@ -6508,25 +6574,26 @@
       <c r="D46" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="29" t="e">
+      <c r="E46" s="58"/>
+      <c r="F46" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20">
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J46" s="21">
+      <c r="K46" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="C47" s="16" t="s">
         <v>51</v>
@@ -6534,25 +6601,26 @@
       <c r="D47" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="29" t="e">
+      <c r="E47" s="58"/>
+      <c r="F47" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="17">
-        <v>0</v>
-      </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20">
+      <c r="G47" s="17">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J47" s="21">
+      <c r="K47" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="C48" s="16" t="s">
         <v>52</v>
@@ -6560,25 +6628,26 @@
       <c r="D48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="29" t="e">
+      <c r="E48" s="58"/>
+      <c r="F48" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="17">
-        <v>0</v>
-      </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20">
+      <c r="G48" s="17">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J48" s="21">
+      <c r="K48" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="C49" s="16" t="s">
         <v>53</v>
@@ -6586,25 +6655,26 @@
       <c r="D49" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="29" t="e">
+      <c r="E49" s="58"/>
+      <c r="F49" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20">
+      <c r="G49" s="17">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J49" s="21">
+      <c r="K49" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="C50" s="16" t="s">
         <v>54</v>
@@ -6612,25 +6682,26 @@
       <c r="D50" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="29" t="e">
+      <c r="E50" s="58"/>
+      <c r="F50" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20">
+      <c r="G50" s="17">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J50" s="21">
+      <c r="K50" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="C51" s="16" t="s">
         <v>55</v>
@@ -6638,25 +6709,26 @@
       <c r="D51" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="29" t="e">
+      <c r="E51" s="58"/>
+      <c r="F51" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="17">
-        <v>0</v>
-      </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="20">
+      <c r="G51" s="17">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J51" s="21">
+      <c r="K51" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="C52" s="16" t="s">
         <v>56</v>
@@ -6664,25 +6736,26 @@
       <c r="D52" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="29" t="e">
+      <c r="E52" s="58"/>
+      <c r="F52" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20">
+      <c r="G52" s="17">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J52" s="21">
+      <c r="K52" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="C53" s="16" t="s">
         <v>57</v>
@@ -6690,25 +6763,26 @@
       <c r="D53" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="29" t="e">
+      <c r="E53" s="58"/>
+      <c r="F53" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="17">
-        <v>0</v>
-      </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20">
+      <c r="G53" s="17">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J53" s="21">
+      <c r="K53" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="C54" s="16" t="s">
         <v>58</v>
@@ -6716,25 +6790,26 @@
       <c r="D54" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="29" t="e">
+      <c r="E54" s="58"/>
+      <c r="F54" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="17">
-        <v>0</v>
-      </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20">
+      <c r="G54" s="17">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J54" s="21">
+      <c r="K54" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="C55" s="16" t="s">
         <v>59</v>
@@ -6742,25 +6817,26 @@
       <c r="D55" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="29" t="e">
+      <c r="E55" s="58"/>
+      <c r="F55" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="17">
-        <v>0</v>
-      </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20">
+      <c r="G55" s="17">
+        <v>0</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J55" s="21">
+      <c r="K55" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="C56" s="16" t="s">
         <v>60</v>
@@ -6768,25 +6844,26 @@
       <c r="D56" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="29" t="e">
+      <c r="E56" s="58"/>
+      <c r="F56" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="17">
-        <v>0</v>
-      </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20">
+      <c r="G56" s="17">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J56" s="21">
+      <c r="K56" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="C57" s="16" t="s">
         <v>61</v>
@@ -6794,25 +6871,26 @@
       <c r="D57" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="29" t="e">
+      <c r="E57" s="58"/>
+      <c r="F57" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="17">
-        <v>0</v>
-      </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20">
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J57" s="21">
+      <c r="K57" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="C58" s="16" t="s">
         <v>62</v>
@@ -6820,25 +6898,26 @@
       <c r="D58" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="29" t="e">
+      <c r="E58" s="58"/>
+      <c r="F58" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="17">
-        <v>0</v>
-      </c>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20">
+      <c r="G58" s="17">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J58" s="21">
+      <c r="K58" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="C59" s="16" t="s">
         <v>63</v>
@@ -6846,25 +6925,26 @@
       <c r="D59" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="29" t="e">
+      <c r="E59" s="58"/>
+      <c r="F59" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="17">
-        <v>0</v>
-      </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="20">
+      <c r="G59" s="17">
+        <v>0</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J59" s="21">
+      <c r="K59" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="C60" s="16" t="s">
         <v>64</v>
@@ -6872,25 +6952,26 @@
       <c r="D60" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="29" t="e">
+      <c r="E60" s="58"/>
+      <c r="F60" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="17">
-        <v>0</v>
-      </c>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="20">
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J60" s="21">
+      <c r="K60" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="C61" s="16" t="s">
         <v>65</v>
@@ -6898,25 +6979,26 @@
       <c r="D61" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="29" t="e">
+      <c r="E61" s="58"/>
+      <c r="F61" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="17">
-        <v>0</v>
-      </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="20">
+      <c r="G61" s="17">
+        <v>0</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J61" s="21">
+      <c r="K61" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="C62" s="16" t="s">
         <v>66</v>
@@ -6924,3265 +7006,3268 @@
       <c r="D62" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="29" t="e">
+      <c r="E62" s="58"/>
+      <c r="F62" s="29" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="17">
-        <v>0</v>
-      </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="20">
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J62" s="21">
+      <c r="K62" s="21">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15"/>
       <c r="D63" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="30" t="e">
-        <f>SUM(E6:E62)</f>
+      <c r="E63" s="27"/>
+      <c r="F63" s="30" t="e">
+        <f>SUM(F6:F62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="23"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D64" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E64" s="26">
-        <f>SUM(F6:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="21"/>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21"/>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21"/>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="21"/>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="21"/>
-    </row>
-    <row r="76" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="21"/>
-    </row>
-    <row r="77" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="21"/>
-    </row>
-    <row r="78" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
-    </row>
-    <row r="79" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21"/>
-    </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="21"/>
-    </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="21"/>
-    </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="21"/>
-    </row>
-    <row r="85" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G85" s="23"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
-    </row>
-    <row r="86" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G86" s="23"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="21"/>
-    </row>
-    <row r="87" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21"/>
-    </row>
-    <row r="88" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="21"/>
-    </row>
-    <row r="90" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="21"/>
-    </row>
-    <row r="91" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G91" s="23"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="21"/>
-    </row>
-    <row r="92" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="21"/>
-    </row>
-    <row r="93" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="21"/>
-    </row>
-    <row r="94" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="21"/>
-    </row>
-    <row r="95" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G95" s="23"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G96" s="23"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="21"/>
-    </row>
-    <row r="97" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G97" s="23"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
-    </row>
-    <row r="98" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G98" s="23"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="21"/>
-    </row>
-    <row r="99" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G99" s="23"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="21"/>
-    </row>
-    <row r="100" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G100" s="23"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="21"/>
-    </row>
-    <row r="101" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G101" s="23"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="21"/>
-    </row>
-    <row r="102" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G102" s="23"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="21"/>
-    </row>
-    <row r="103" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G103" s="23"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="21"/>
-    </row>
-    <row r="104" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G104" s="23"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="21"/>
-    </row>
-    <row r="105" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G105" s="23"/>
-      <c r="H105" s="24"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G106" s="23"/>
-      <c r="H106" s="24"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="21"/>
-    </row>
-    <row r="107" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G107" s="23"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="21"/>
-    </row>
-    <row r="108" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G108" s="23"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="21"/>
-    </row>
-    <row r="109" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G109" s="23"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="21"/>
-    </row>
-    <row r="110" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G110" s="23"/>
-      <c r="H110" s="24"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="21"/>
-    </row>
-    <row r="111" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G111" s="23"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="21"/>
-    </row>
-    <row r="112" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G112" s="23"/>
-      <c r="H112" s="24"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="21"/>
-    </row>
-    <row r="113" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G113" s="23"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="21"/>
-    </row>
-    <row r="114" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G114" s="23"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="21"/>
-    </row>
-    <row r="115" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G115" s="23"/>
-      <c r="H115" s="24"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="21"/>
-    </row>
-    <row r="116" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G116" s="23"/>
-      <c r="H116" s="24"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="21"/>
-    </row>
-    <row r="117" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G117" s="23"/>
-      <c r="H117" s="24"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="21"/>
-    </row>
-    <row r="118" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G118" s="23"/>
-      <c r="H118" s="24"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="21"/>
-    </row>
-    <row r="119" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G119" s="23"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="21"/>
-    </row>
-    <row r="120" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G120" s="23"/>
-      <c r="H120" s="24"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="21"/>
-    </row>
-    <row r="121" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G121" s="23"/>
-      <c r="H121" s="24"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="21"/>
-    </row>
-    <row r="122" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G122" s="23"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="21"/>
-    </row>
-    <row r="123" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G123" s="23"/>
-      <c r="H123" s="24"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="21"/>
-    </row>
-    <row r="124" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G124" s="23"/>
-      <c r="H124" s="24"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="21"/>
-    </row>
-    <row r="125" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G125" s="23"/>
-      <c r="H125" s="24"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="21"/>
-    </row>
-    <row r="126" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G126" s="23"/>
-      <c r="H126" s="24"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="21"/>
-    </row>
-    <row r="127" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G127" s="23"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="21"/>
-    </row>
-    <row r="128" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G128" s="23"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="21"/>
-    </row>
-    <row r="129" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G129" s="23"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="21"/>
-    </row>
-    <row r="130" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G130" s="23"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="21"/>
-    </row>
-    <row r="131" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G131" s="23"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="21"/>
-    </row>
-    <row r="132" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G132" s="23"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="21"/>
-    </row>
-    <row r="133" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G133" s="23"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="21"/>
-    </row>
-    <row r="134" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G134" s="23"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="21"/>
-    </row>
-    <row r="135" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G135" s="23"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="21"/>
-    </row>
-    <row r="136" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G136" s="23"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="21"/>
-    </row>
-    <row r="137" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G137" s="23"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="21"/>
-    </row>
-    <row r="138" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G138" s="23"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="21"/>
-    </row>
-    <row r="139" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G139" s="23"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="21"/>
-    </row>
-    <row r="140" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G140" s="23"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="21"/>
-    </row>
-    <row r="141" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G141" s="23"/>
-      <c r="H141" s="24"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="21"/>
-    </row>
-    <row r="142" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G142" s="23"/>
-      <c r="H142" s="24"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="21"/>
-    </row>
-    <row r="143" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G143" s="23"/>
-      <c r="H143" s="24"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="21"/>
-    </row>
-    <row r="144" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G144" s="23"/>
-      <c r="H144" s="24"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="21"/>
-    </row>
-    <row r="145" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G145" s="23"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="21"/>
-    </row>
-    <row r="146" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G146" s="23"/>
-      <c r="H146" s="24"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="21"/>
-    </row>
-    <row r="147" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G147" s="23"/>
-      <c r="H147" s="24"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="21"/>
-    </row>
-    <row r="148" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G148" s="23"/>
-      <c r="H148" s="24"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="21"/>
-    </row>
-    <row r="149" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G149" s="23"/>
-      <c r="H149" s="24"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="21"/>
-    </row>
-    <row r="150" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G150" s="23"/>
-      <c r="H150" s="24"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="21"/>
-    </row>
-    <row r="151" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G151" s="23"/>
-      <c r="H151" s="24"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="21"/>
-    </row>
-    <row r="152" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G152" s="23"/>
-      <c r="H152" s="24"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="21"/>
-    </row>
-    <row r="153" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G153" s="23"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="21"/>
-    </row>
-    <row r="154" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G154" s="23"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="21"/>
-    </row>
-    <row r="155" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G155" s="23"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="21"/>
-    </row>
-    <row r="156" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G156" s="23"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="21"/>
-    </row>
-    <row r="157" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G157" s="23"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="21"/>
-    </row>
-    <row r="158" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G158" s="23"/>
-      <c r="H158" s="24"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="21"/>
-    </row>
-    <row r="159" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G159" s="23"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="21"/>
-    </row>
-    <row r="160" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G160" s="23"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="20"/>
-      <c r="J160" s="21"/>
-    </row>
-    <row r="161" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G161" s="23"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="21"/>
-    </row>
-    <row r="162" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G162" s="23"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="21"/>
-    </row>
-    <row r="163" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G163" s="23"/>
-      <c r="H163" s="24"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="21"/>
-    </row>
-    <row r="164" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G164" s="23"/>
-      <c r="H164" s="24"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="21"/>
-    </row>
-    <row r="165" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G165" s="23"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="21"/>
-    </row>
-    <row r="166" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G166" s="23"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="21"/>
-    </row>
-    <row r="167" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G167" s="23"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="20"/>
-      <c r="J167" s="21"/>
-    </row>
-    <row r="168" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G168" s="23"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="21"/>
-    </row>
-    <row r="169" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G169" s="23"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="21"/>
-    </row>
-    <row r="170" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G170" s="23"/>
-      <c r="H170" s="24"/>
-      <c r="I170" s="20"/>
-      <c r="J170" s="21"/>
-    </row>
-    <row r="171" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G171" s="23"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="21"/>
-    </row>
-    <row r="172" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G172" s="23"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="21"/>
-    </row>
-    <row r="173" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G173" s="23"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="21"/>
-    </row>
-    <row r="174" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G174" s="23"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="21"/>
-    </row>
-    <row r="175" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G175" s="23"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="21"/>
-    </row>
-    <row r="176" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G176" s="23"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="21"/>
-    </row>
-    <row r="177" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G177" s="23"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="21"/>
-    </row>
-    <row r="178" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G178" s="23"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="21"/>
-    </row>
-    <row r="179" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G179" s="23"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="20"/>
-      <c r="J179" s="21"/>
-    </row>
-    <row r="180" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G180" s="23"/>
-      <c r="H180" s="24"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="21"/>
-    </row>
-    <row r="181" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G181" s="23"/>
-      <c r="H181" s="24"/>
-      <c r="I181" s="20"/>
-      <c r="J181" s="21"/>
-    </row>
-    <row r="182" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G182" s="23"/>
-      <c r="H182" s="24"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="21"/>
-    </row>
-    <row r="183" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G183" s="23"/>
-      <c r="H183" s="24"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="21"/>
-    </row>
-    <row r="184" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G184" s="23"/>
-      <c r="H184" s="24"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="21"/>
-    </row>
-    <row r="185" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G185" s="23"/>
-      <c r="H185" s="24"/>
-      <c r="I185" s="20"/>
-      <c r="J185" s="21"/>
-    </row>
-    <row r="186" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G186" s="23"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="20"/>
-      <c r="J186" s="21"/>
-    </row>
-    <row r="187" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G187" s="23"/>
-      <c r="H187" s="24"/>
-      <c r="I187" s="20"/>
-      <c r="J187" s="21"/>
-    </row>
-    <row r="188" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G188" s="23"/>
-      <c r="H188" s="24"/>
-      <c r="I188" s="20"/>
-      <c r="J188" s="21"/>
-    </row>
-    <row r="189" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G189" s="23"/>
-      <c r="H189" s="24"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="21"/>
-    </row>
-    <row r="190" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G190" s="23"/>
-      <c r="H190" s="24"/>
-      <c r="I190" s="20"/>
-      <c r="J190" s="21"/>
-    </row>
-    <row r="191" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G191" s="23"/>
-      <c r="H191" s="24"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="21"/>
-    </row>
-    <row r="192" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G192" s="23"/>
-      <c r="H192" s="24"/>
-      <c r="I192" s="20"/>
-      <c r="J192" s="21"/>
-    </row>
-    <row r="193" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G193" s="23"/>
-      <c r="H193" s="24"/>
-      <c r="I193" s="20"/>
-      <c r="J193" s="21"/>
-    </row>
-    <row r="194" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G194" s="23"/>
-      <c r="H194" s="24"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="21"/>
-    </row>
-    <row r="195" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G195" s="23"/>
-      <c r="H195" s="24"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="21"/>
-    </row>
-    <row r="196" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G196" s="23"/>
-      <c r="H196" s="24"/>
-      <c r="I196" s="20"/>
-      <c r="J196" s="21"/>
-    </row>
-    <row r="197" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G197" s="23"/>
-      <c r="H197" s="24"/>
-      <c r="I197" s="20"/>
-      <c r="J197" s="21"/>
-    </row>
-    <row r="198" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G198" s="23"/>
-      <c r="H198" s="24"/>
-      <c r="I198" s="20"/>
-      <c r="J198" s="21"/>
-    </row>
-    <row r="199" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G199" s="23"/>
-      <c r="H199" s="24"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="21"/>
-    </row>
-    <row r="200" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G200" s="23"/>
-      <c r="H200" s="24"/>
-      <c r="I200" s="20"/>
-      <c r="J200" s="21"/>
-    </row>
-    <row r="201" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G201" s="23"/>
-      <c r="H201" s="24"/>
-      <c r="I201" s="20"/>
-      <c r="J201" s="21"/>
-    </row>
-    <row r="202" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G202" s="23"/>
-      <c r="H202" s="24"/>
-      <c r="I202" s="20"/>
-      <c r="J202" s="21"/>
-    </row>
-    <row r="203" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G203" s="23"/>
-      <c r="H203" s="24"/>
-      <c r="I203" s="20"/>
-      <c r="J203" s="21"/>
-    </row>
-    <row r="204" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G204" s="23"/>
-      <c r="H204" s="24"/>
-      <c r="I204" s="20"/>
-      <c r="J204" s="21"/>
-    </row>
-    <row r="205" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G205" s="23"/>
-      <c r="H205" s="24"/>
-      <c r="I205" s="20"/>
-      <c r="J205" s="21"/>
-    </row>
-    <row r="206" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G206" s="23"/>
-      <c r="H206" s="24"/>
-      <c r="I206" s="20"/>
-      <c r="J206" s="21"/>
-    </row>
-    <row r="207" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G207" s="23"/>
-      <c r="H207" s="24"/>
-      <c r="I207" s="20"/>
-      <c r="J207" s="21"/>
-    </row>
-    <row r="208" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G208" s="23"/>
-      <c r="H208" s="24"/>
-      <c r="I208" s="20"/>
-      <c r="J208" s="21"/>
-    </row>
-    <row r="209" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G209" s="23"/>
-      <c r="H209" s="24"/>
-      <c r="I209" s="20"/>
-      <c r="J209" s="21"/>
-    </row>
-    <row r="210" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G210" s="23"/>
-      <c r="H210" s="24"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="21"/>
-    </row>
-    <row r="211" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G211" s="23"/>
-      <c r="H211" s="24"/>
-      <c r="I211" s="20"/>
-      <c r="J211" s="21"/>
-    </row>
-    <row r="212" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G212" s="23"/>
-      <c r="H212" s="24"/>
-      <c r="I212" s="20"/>
-      <c r="J212" s="21"/>
-    </row>
-    <row r="213" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G213" s="23"/>
-      <c r="H213" s="24"/>
-      <c r="I213" s="20"/>
-      <c r="J213" s="21"/>
-    </row>
-    <row r="214" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G214" s="23"/>
-      <c r="H214" s="24"/>
-      <c r="I214" s="20"/>
-      <c r="J214" s="21"/>
-    </row>
-    <row r="215" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G215" s="23"/>
-      <c r="H215" s="24"/>
-      <c r="I215" s="20"/>
-      <c r="J215" s="21"/>
-    </row>
-    <row r="216" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G216" s="23"/>
-      <c r="H216" s="24"/>
-      <c r="I216" s="20"/>
-      <c r="J216" s="21"/>
-    </row>
-    <row r="217" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G217" s="23"/>
-      <c r="H217" s="24"/>
-      <c r="I217" s="20"/>
-      <c r="J217" s="21"/>
-    </row>
-    <row r="218" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G218" s="23"/>
-      <c r="H218" s="24"/>
-      <c r="I218" s="20"/>
-      <c r="J218" s="21"/>
-    </row>
-    <row r="219" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G219" s="23"/>
-      <c r="H219" s="24"/>
-      <c r="I219" s="20"/>
-      <c r="J219" s="21"/>
-    </row>
-    <row r="220" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G220" s="23"/>
-      <c r="H220" s="24"/>
-      <c r="I220" s="20"/>
-      <c r="J220" s="21"/>
-    </row>
-    <row r="221" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G221" s="23"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="20"/>
-      <c r="J221" s="21"/>
-    </row>
-    <row r="222" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G222" s="23"/>
-      <c r="H222" s="24"/>
-      <c r="I222" s="20"/>
-      <c r="J222" s="21"/>
-    </row>
-    <row r="223" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G223" s="23"/>
-      <c r="H223" s="24"/>
-      <c r="I223" s="20"/>
-      <c r="J223" s="21"/>
-    </row>
-    <row r="224" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G224" s="23"/>
-      <c r="H224" s="24"/>
-      <c r="I224" s="20"/>
-      <c r="J224" s="21"/>
-    </row>
-    <row r="225" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G225" s="23"/>
-      <c r="H225" s="24"/>
-      <c r="I225" s="20"/>
-      <c r="J225" s="21"/>
-    </row>
-    <row r="226" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G226" s="23"/>
-      <c r="H226" s="24"/>
-      <c r="I226" s="20"/>
-      <c r="J226" s="21"/>
-    </row>
-    <row r="227" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G227" s="23"/>
-      <c r="H227" s="24"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="21"/>
-    </row>
-    <row r="228" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G228" s="23"/>
-      <c r="H228" s="24"/>
-      <c r="I228" s="20"/>
-      <c r="J228" s="21"/>
-    </row>
-    <row r="229" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G229" s="23"/>
-      <c r="H229" s="24"/>
-      <c r="I229" s="20"/>
-      <c r="J229" s="21"/>
-    </row>
-    <row r="230" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G230" s="23"/>
-      <c r="H230" s="24"/>
-      <c r="I230" s="20"/>
-      <c r="J230" s="21"/>
-    </row>
-    <row r="231" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G231" s="23"/>
-      <c r="H231" s="24"/>
-      <c r="I231" s="20"/>
-      <c r="J231" s="21"/>
-    </row>
-    <row r="232" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G232" s="23"/>
-      <c r="H232" s="24"/>
-      <c r="I232" s="20"/>
-      <c r="J232" s="21"/>
-    </row>
-    <row r="233" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G233" s="23"/>
-      <c r="H233" s="24"/>
-      <c r="I233" s="20"/>
-      <c r="J233" s="21"/>
-    </row>
-    <row r="234" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G234" s="23"/>
-      <c r="H234" s="24"/>
-      <c r="I234" s="20"/>
-      <c r="J234" s="21"/>
-    </row>
-    <row r="235" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G235" s="23"/>
-      <c r="H235" s="24"/>
-      <c r="I235" s="20"/>
-      <c r="J235" s="21"/>
-    </row>
-    <row r="236" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G236" s="23"/>
-      <c r="H236" s="24"/>
-      <c r="I236" s="20"/>
-      <c r="J236" s="21"/>
-    </row>
-    <row r="237" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G237" s="23"/>
-      <c r="H237" s="24"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="21"/>
-    </row>
-    <row r="238" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G238" s="23"/>
-      <c r="H238" s="24"/>
-      <c r="I238" s="20"/>
-      <c r="J238" s="21"/>
-    </row>
-    <row r="239" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G239" s="23"/>
-      <c r="H239" s="24"/>
-      <c r="I239" s="20"/>
-      <c r="J239" s="21"/>
-    </row>
-    <row r="240" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G240" s="23"/>
-      <c r="H240" s="24"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="21"/>
-    </row>
-    <row r="241" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G241" s="23"/>
-      <c r="H241" s="24"/>
-      <c r="I241" s="20"/>
-      <c r="J241" s="21"/>
-    </row>
-    <row r="242" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G242" s="23"/>
-      <c r="H242" s="24"/>
-      <c r="I242" s="20"/>
-      <c r="J242" s="21"/>
-    </row>
-    <row r="243" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G243" s="23"/>
-      <c r="H243" s="24"/>
-      <c r="I243" s="20"/>
-      <c r="J243" s="21"/>
-    </row>
-    <row r="244" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G244" s="23"/>
-      <c r="H244" s="24"/>
-      <c r="I244" s="20"/>
-      <c r="J244" s="21"/>
-    </row>
-    <row r="245" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G245" s="23"/>
-      <c r="H245" s="24"/>
-      <c r="I245" s="20"/>
-      <c r="J245" s="21"/>
-    </row>
-    <row r="246" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G246" s="23"/>
-      <c r="H246" s="24"/>
-      <c r="I246" s="20"/>
-      <c r="J246" s="21"/>
-    </row>
-    <row r="247" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G247" s="23"/>
-      <c r="H247" s="24"/>
-      <c r="I247" s="20"/>
-      <c r="J247" s="21"/>
-    </row>
-    <row r="248" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G248" s="23"/>
-      <c r="H248" s="24"/>
-      <c r="I248" s="20"/>
-      <c r="J248" s="21"/>
-    </row>
-    <row r="249" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G249" s="23"/>
-      <c r="H249" s="24"/>
-      <c r="I249" s="20"/>
-      <c r="J249" s="21"/>
-    </row>
-    <row r="250" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G250" s="23"/>
-      <c r="H250" s="24"/>
-      <c r="I250" s="20"/>
-      <c r="J250" s="21"/>
-    </row>
-    <row r="251" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G251" s="23"/>
-      <c r="H251" s="24"/>
-      <c r="I251" s="20"/>
-      <c r="J251" s="21"/>
-    </row>
-    <row r="252" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G252" s="23"/>
-      <c r="H252" s="24"/>
-      <c r="I252" s="20"/>
-      <c r="J252" s="21"/>
-    </row>
-    <row r="253" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G253" s="23"/>
-      <c r="H253" s="24"/>
-      <c r="I253" s="20"/>
-      <c r="J253" s="21"/>
-    </row>
-    <row r="254" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G254" s="23"/>
-      <c r="H254" s="24"/>
-      <c r="I254" s="20"/>
-      <c r="J254" s="21"/>
-    </row>
-    <row r="255" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G255" s="23"/>
-      <c r="H255" s="24"/>
-      <c r="I255" s="20"/>
-      <c r="J255" s="21"/>
-    </row>
-    <row r="256" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G256" s="23"/>
-      <c r="H256" s="24"/>
-      <c r="I256" s="20"/>
-      <c r="J256" s="21"/>
-    </row>
-    <row r="257" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G257" s="23"/>
-      <c r="H257" s="24"/>
-      <c r="I257" s="20"/>
-      <c r="J257" s="21"/>
-    </row>
-    <row r="258" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G258" s="23"/>
-      <c r="H258" s="24"/>
-      <c r="I258" s="20"/>
-      <c r="J258" s="21"/>
-    </row>
-    <row r="259" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G259" s="23"/>
-      <c r="H259" s="24"/>
-      <c r="I259" s="20"/>
-      <c r="J259" s="21"/>
-    </row>
-    <row r="260" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G260" s="23"/>
-      <c r="H260" s="24"/>
-      <c r="I260" s="20"/>
-      <c r="J260" s="21"/>
-    </row>
-    <row r="261" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G261" s="23"/>
-      <c r="H261" s="24"/>
-      <c r="I261" s="20"/>
-      <c r="J261" s="21"/>
-    </row>
-    <row r="262" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G262" s="23"/>
-      <c r="H262" s="24"/>
-      <c r="I262" s="20"/>
-      <c r="J262" s="21"/>
-    </row>
-    <row r="263" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G263" s="23"/>
-      <c r="H263" s="24"/>
-      <c r="I263" s="20"/>
-      <c r="J263" s="21"/>
-    </row>
-    <row r="264" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G264" s="23"/>
-      <c r="H264" s="24"/>
-      <c r="I264" s="20"/>
-      <c r="J264" s="21"/>
-    </row>
-    <row r="265" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G265" s="23"/>
-      <c r="H265" s="24"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="21"/>
-    </row>
-    <row r="266" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G266" s="23"/>
-      <c r="H266" s="24"/>
-      <c r="I266" s="20"/>
-      <c r="J266" s="21"/>
-    </row>
-    <row r="267" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G267" s="23"/>
-      <c r="H267" s="24"/>
-      <c r="I267" s="20"/>
-      <c r="J267" s="21"/>
-    </row>
-    <row r="268" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G268" s="23"/>
-      <c r="H268" s="24"/>
-      <c r="I268" s="20"/>
-      <c r="J268" s="21"/>
-    </row>
-    <row r="269" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G269" s="23"/>
-      <c r="H269" s="24"/>
-      <c r="I269" s="20"/>
-      <c r="J269" s="21"/>
-    </row>
-    <row r="270" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G270" s="23"/>
-      <c r="H270" s="24"/>
-      <c r="I270" s="20"/>
-      <c r="J270" s="21"/>
-    </row>
-    <row r="271" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G271" s="23"/>
-      <c r="H271" s="24"/>
-      <c r="I271" s="20"/>
-      <c r="J271" s="21"/>
-    </row>
-    <row r="272" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G272" s="23"/>
-      <c r="H272" s="24"/>
-      <c r="I272" s="20"/>
-      <c r="J272" s="21"/>
-    </row>
-    <row r="273" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G273" s="23"/>
-      <c r="H273" s="24"/>
-      <c r="I273" s="20"/>
-      <c r="J273" s="21"/>
-    </row>
-    <row r="274" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G274" s="23"/>
-      <c r="H274" s="24"/>
-      <c r="I274" s="20"/>
-      <c r="J274" s="21"/>
-    </row>
-    <row r="275" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G275" s="23"/>
-      <c r="H275" s="24"/>
-      <c r="I275" s="20"/>
-      <c r="J275" s="21"/>
-    </row>
-    <row r="276" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G276" s="23"/>
-      <c r="H276" s="24"/>
-      <c r="I276" s="20"/>
-      <c r="J276" s="21"/>
-    </row>
-    <row r="277" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G277" s="23"/>
-      <c r="H277" s="24"/>
-      <c r="I277" s="20"/>
-      <c r="J277" s="21"/>
-    </row>
-    <row r="278" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G278" s="23"/>
-      <c r="H278" s="24"/>
-      <c r="I278" s="20"/>
-      <c r="J278" s="21"/>
-    </row>
-    <row r="279" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G279" s="23"/>
-      <c r="H279" s="24"/>
-      <c r="I279" s="20"/>
-      <c r="J279" s="21"/>
-    </row>
-    <row r="280" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G280" s="23"/>
-      <c r="H280" s="24"/>
-      <c r="I280" s="20"/>
-      <c r="J280" s="21"/>
-    </row>
-    <row r="281" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G281" s="23"/>
-      <c r="H281" s="24"/>
-      <c r="I281" s="20"/>
-      <c r="J281" s="21"/>
-    </row>
-    <row r="282" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G282" s="23"/>
-      <c r="H282" s="24"/>
-      <c r="I282" s="20"/>
-      <c r="J282" s="21"/>
-    </row>
-    <row r="283" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G283" s="23"/>
-      <c r="H283" s="24"/>
-      <c r="I283" s="20"/>
-      <c r="J283" s="21"/>
-    </row>
-    <row r="284" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G284" s="23"/>
-      <c r="H284" s="24"/>
-      <c r="I284" s="20"/>
-      <c r="J284" s="21"/>
-    </row>
-    <row r="285" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G285" s="23"/>
-      <c r="H285" s="24"/>
-      <c r="I285" s="20"/>
-      <c r="J285" s="21"/>
-    </row>
-    <row r="286" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G286" s="23"/>
-      <c r="H286" s="24"/>
-      <c r="I286" s="20"/>
-      <c r="J286" s="21"/>
-    </row>
-    <row r="287" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G287" s="23"/>
-      <c r="H287" s="24"/>
-      <c r="I287" s="20"/>
-      <c r="J287" s="21"/>
-    </row>
-    <row r="288" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G288" s="23"/>
-      <c r="H288" s="24"/>
-      <c r="I288" s="20"/>
-      <c r="J288" s="21"/>
-    </row>
-    <row r="289" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G289" s="23"/>
-      <c r="H289" s="24"/>
-      <c r="I289" s="20"/>
-      <c r="J289" s="21"/>
-    </row>
-    <row r="290" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G290" s="23"/>
-      <c r="H290" s="24"/>
-      <c r="I290" s="20"/>
-      <c r="J290" s="21"/>
-    </row>
-    <row r="291" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G291" s="23"/>
-      <c r="H291" s="24"/>
-      <c r="I291" s="20"/>
-      <c r="J291" s="21"/>
-    </row>
-    <row r="292" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G292" s="23"/>
-      <c r="H292" s="24"/>
-      <c r="I292" s="20"/>
-      <c r="J292" s="21"/>
-    </row>
-    <row r="293" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G293" s="23"/>
-      <c r="H293" s="24"/>
-      <c r="I293" s="20"/>
-      <c r="J293" s="21"/>
-    </row>
-    <row r="294" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G294" s="23"/>
-      <c r="H294" s="24"/>
-      <c r="I294" s="20"/>
-      <c r="J294" s="21"/>
-    </row>
-    <row r="295" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G295" s="23"/>
-      <c r="H295" s="24"/>
-      <c r="I295" s="20"/>
-      <c r="J295" s="21"/>
-    </row>
-    <row r="296" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G296" s="23"/>
-      <c r="H296" s="24"/>
-      <c r="I296" s="20"/>
-      <c r="J296" s="21"/>
-    </row>
-    <row r="297" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G297" s="23"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="20"/>
-      <c r="J297" s="21"/>
-    </row>
-    <row r="298" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G298" s="23"/>
-      <c r="H298" s="24"/>
-      <c r="I298" s="20"/>
-      <c r="J298" s="21"/>
-    </row>
-    <row r="299" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G299" s="23"/>
-      <c r="H299" s="24"/>
-      <c r="I299" s="20"/>
-      <c r="J299" s="21"/>
-    </row>
-    <row r="300" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G300" s="23"/>
-      <c r="H300" s="24"/>
-      <c r="I300" s="20"/>
-      <c r="J300" s="21"/>
-    </row>
-    <row r="301" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G301" s="23"/>
-      <c r="H301" s="24"/>
-      <c r="I301" s="20"/>
-      <c r="J301" s="21"/>
-    </row>
-    <row r="302" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G302" s="23"/>
-      <c r="H302" s="24"/>
-      <c r="I302" s="20"/>
-      <c r="J302" s="21"/>
-    </row>
-    <row r="303" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G303" s="23"/>
-      <c r="H303" s="24"/>
-      <c r="I303" s="20"/>
-      <c r="J303" s="21"/>
-    </row>
-    <row r="304" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G304" s="23"/>
-      <c r="H304" s="24"/>
-      <c r="I304" s="20"/>
-      <c r="J304" s="21"/>
-    </row>
-    <row r="305" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G305" s="23"/>
-      <c r="H305" s="24"/>
-      <c r="I305" s="20"/>
-      <c r="J305" s="21"/>
-    </row>
-    <row r="306" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G306" s="23"/>
-      <c r="H306" s="24"/>
-      <c r="I306" s="20"/>
-      <c r="J306" s="21"/>
-    </row>
-    <row r="307" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G307" s="23"/>
-      <c r="H307" s="24"/>
-      <c r="I307" s="20"/>
-      <c r="J307" s="21"/>
-    </row>
-    <row r="308" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G308" s="23"/>
-      <c r="H308" s="24"/>
-      <c r="I308" s="20"/>
-      <c r="J308" s="21"/>
-    </row>
-    <row r="309" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G309" s="23"/>
-      <c r="H309" s="24"/>
-      <c r="I309" s="20"/>
-      <c r="J309" s="21"/>
-    </row>
-    <row r="310" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G310" s="23"/>
-      <c r="H310" s="24"/>
-      <c r="I310" s="20"/>
-      <c r="J310" s="21"/>
-    </row>
-    <row r="311" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G311" s="23"/>
-      <c r="H311" s="24"/>
-      <c r="I311" s="20"/>
-      <c r="J311" s="21"/>
-    </row>
-    <row r="312" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G312" s="23"/>
-      <c r="H312" s="24"/>
-      <c r="I312" s="20"/>
-      <c r="J312" s="21"/>
-    </row>
-    <row r="313" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G313" s="23"/>
-      <c r="H313" s="24"/>
-      <c r="I313" s="20"/>
-      <c r="J313" s="21"/>
-    </row>
-    <row r="314" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G314" s="23"/>
-      <c r="H314" s="24"/>
-      <c r="I314" s="20"/>
-      <c r="J314" s="21"/>
-    </row>
-    <row r="315" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G315" s="23"/>
-      <c r="H315" s="24"/>
-      <c r="I315" s="20"/>
-      <c r="J315" s="21"/>
-    </row>
-    <row r="316" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G316" s="23"/>
-      <c r="H316" s="24"/>
-      <c r="I316" s="20"/>
-      <c r="J316" s="21"/>
-    </row>
-    <row r="317" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G317" s="23"/>
-      <c r="H317" s="24"/>
-      <c r="I317" s="20"/>
-      <c r="J317" s="21"/>
-    </row>
-    <row r="318" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G318" s="23"/>
-      <c r="H318" s="24"/>
-      <c r="I318" s="20"/>
-      <c r="J318" s="21"/>
-    </row>
-    <row r="319" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G319" s="23"/>
-      <c r="H319" s="24"/>
-      <c r="I319" s="20"/>
-      <c r="J319" s="21"/>
-    </row>
-    <row r="320" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G320" s="23"/>
-      <c r="H320" s="24"/>
-      <c r="I320" s="20"/>
-      <c r="J320" s="21"/>
-    </row>
-    <row r="321" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G321" s="23"/>
-      <c r="H321" s="24"/>
-      <c r="I321" s="20"/>
-      <c r="J321" s="21"/>
-    </row>
-    <row r="322" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G322" s="23"/>
-      <c r="H322" s="24"/>
-      <c r="I322" s="20"/>
-      <c r="J322" s="21"/>
-    </row>
-    <row r="323" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G323" s="23"/>
-      <c r="H323" s="24"/>
-      <c r="I323" s="20"/>
-      <c r="J323" s="21"/>
-    </row>
-    <row r="324" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G324" s="23"/>
-      <c r="H324" s="24"/>
-      <c r="I324" s="20"/>
-      <c r="J324" s="21"/>
-    </row>
-    <row r="325" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G325" s="23"/>
-      <c r="H325" s="24"/>
-      <c r="I325" s="20"/>
-      <c r="J325" s="21"/>
-    </row>
-    <row r="326" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G326" s="23"/>
-      <c r="H326" s="24"/>
-      <c r="I326" s="20"/>
-      <c r="J326" s="21"/>
-    </row>
-    <row r="327" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G327" s="23"/>
-      <c r="H327" s="24"/>
-      <c r="I327" s="20"/>
-      <c r="J327" s="21"/>
-    </row>
-    <row r="328" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G328" s="23"/>
-      <c r="H328" s="24"/>
-      <c r="I328" s="20"/>
-      <c r="J328" s="21"/>
-    </row>
-    <row r="329" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G329" s="23"/>
-      <c r="H329" s="24"/>
-      <c r="I329" s="20"/>
-      <c r="J329" s="21"/>
-    </row>
-    <row r="330" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G330" s="23"/>
-      <c r="H330" s="24"/>
-      <c r="I330" s="20"/>
-      <c r="J330" s="21"/>
-    </row>
-    <row r="331" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G331" s="23"/>
-      <c r="H331" s="24"/>
-      <c r="I331" s="20"/>
-      <c r="J331" s="21"/>
-    </row>
-    <row r="332" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G332" s="23"/>
-      <c r="H332" s="24"/>
-      <c r="I332" s="20"/>
-      <c r="J332" s="21"/>
-    </row>
-    <row r="333" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G333" s="23"/>
-      <c r="H333" s="24"/>
-      <c r="I333" s="20"/>
-      <c r="J333" s="21"/>
-    </row>
-    <row r="334" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G334" s="23"/>
-      <c r="H334" s="24"/>
-      <c r="I334" s="20"/>
-      <c r="J334" s="21"/>
-    </row>
-    <row r="335" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G335" s="23"/>
-      <c r="H335" s="24"/>
-      <c r="I335" s="20"/>
-      <c r="J335" s="21"/>
-    </row>
-    <row r="336" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G336" s="23"/>
-      <c r="H336" s="24"/>
-      <c r="I336" s="20"/>
-      <c r="J336" s="21"/>
-    </row>
-    <row r="337" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G337" s="23"/>
-      <c r="H337" s="24"/>
-      <c r="I337" s="20"/>
-      <c r="J337" s="21"/>
-    </row>
-    <row r="338" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G338" s="23"/>
-      <c r="H338" s="24"/>
-      <c r="I338" s="20"/>
-      <c r="J338" s="21"/>
-    </row>
-    <row r="339" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G339" s="23"/>
-      <c r="H339" s="24"/>
-      <c r="I339" s="20"/>
-      <c r="J339" s="21"/>
-    </row>
-    <row r="340" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G340" s="23"/>
-      <c r="H340" s="24"/>
-      <c r="I340" s="20"/>
-      <c r="J340" s="21"/>
-    </row>
-    <row r="341" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G341" s="23"/>
-      <c r="H341" s="24"/>
-      <c r="I341" s="20"/>
-      <c r="J341" s="21"/>
-    </row>
-    <row r="342" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G342" s="23"/>
-      <c r="H342" s="24"/>
-      <c r="I342" s="20"/>
-      <c r="J342" s="21"/>
-    </row>
-    <row r="343" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G343" s="23"/>
-      <c r="H343" s="24"/>
-      <c r="I343" s="20"/>
-      <c r="J343" s="21"/>
-    </row>
-    <row r="344" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G344" s="23"/>
-      <c r="H344" s="24"/>
-      <c r="I344" s="20"/>
-      <c r="J344" s="21"/>
-    </row>
-    <row r="345" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G345" s="23"/>
-      <c r="H345" s="24"/>
-      <c r="I345" s="20"/>
-      <c r="J345" s="21"/>
-    </row>
-    <row r="346" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G346" s="23"/>
-      <c r="H346" s="24"/>
-      <c r="I346" s="20"/>
-      <c r="J346" s="21"/>
-    </row>
-    <row r="347" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G347" s="23"/>
-      <c r="H347" s="24"/>
-      <c r="I347" s="20"/>
-      <c r="J347" s="21"/>
-    </row>
-    <row r="348" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G348" s="23"/>
-      <c r="H348" s="24"/>
-      <c r="I348" s="20"/>
-      <c r="J348" s="21"/>
-    </row>
-    <row r="349" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G349" s="23"/>
-      <c r="H349" s="24"/>
-      <c r="I349" s="20"/>
-      <c r="J349" s="21"/>
-    </row>
-    <row r="350" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G350" s="23"/>
-      <c r="H350" s="24"/>
-      <c r="I350" s="20"/>
-      <c r="J350" s="21"/>
-    </row>
-    <row r="351" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G351" s="23"/>
-      <c r="H351" s="24"/>
-      <c r="I351" s="20"/>
-      <c r="J351" s="21"/>
-    </row>
-    <row r="352" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G352" s="23"/>
-      <c r="H352" s="24"/>
-      <c r="I352" s="20"/>
-      <c r="J352" s="21"/>
-    </row>
-    <row r="353" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G353" s="23"/>
-      <c r="H353" s="24"/>
-      <c r="I353" s="20"/>
-      <c r="J353" s="21"/>
-    </row>
-    <row r="354" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G354" s="23"/>
-      <c r="H354" s="24"/>
-      <c r="I354" s="20"/>
-      <c r="J354" s="21"/>
-    </row>
-    <row r="355" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G355" s="23"/>
-      <c r="H355" s="24"/>
-      <c r="I355" s="20"/>
-      <c r="J355" s="21"/>
-    </row>
-    <row r="356" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G356" s="23"/>
-      <c r="H356" s="24"/>
-      <c r="I356" s="20"/>
-      <c r="J356" s="21"/>
-    </row>
-    <row r="357" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G357" s="23"/>
-      <c r="H357" s="24"/>
-      <c r="I357" s="20"/>
-      <c r="J357" s="21"/>
-    </row>
-    <row r="358" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G358" s="23"/>
-      <c r="H358" s="24"/>
-      <c r="I358" s="20"/>
-      <c r="J358" s="21"/>
-    </row>
-    <row r="359" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G359" s="23"/>
-      <c r="H359" s="24"/>
-      <c r="I359" s="20"/>
-      <c r="J359" s="21"/>
-    </row>
-    <row r="360" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G360" s="23"/>
-      <c r="H360" s="24"/>
-      <c r="I360" s="20"/>
-      <c r="J360" s="21"/>
-    </row>
-    <row r="361" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G361" s="23"/>
-      <c r="H361" s="24"/>
-      <c r="I361" s="20"/>
-      <c r="J361" s="21"/>
-    </row>
-    <row r="362" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G362" s="23"/>
-      <c r="H362" s="24"/>
-      <c r="I362" s="20"/>
-      <c r="J362" s="21"/>
-    </row>
-    <row r="363" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G363" s="23"/>
-      <c r="H363" s="24"/>
-      <c r="I363" s="20"/>
-      <c r="J363" s="21"/>
-    </row>
-    <row r="364" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G364" s="23"/>
-      <c r="H364" s="24"/>
-      <c r="I364" s="20"/>
-      <c r="J364" s="21"/>
-    </row>
-    <row r="365" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G365" s="23"/>
-      <c r="H365" s="24"/>
-      <c r="I365" s="20"/>
-      <c r="J365" s="21"/>
-    </row>
-    <row r="366" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G366" s="23"/>
-      <c r="H366" s="24"/>
-      <c r="I366" s="20"/>
-      <c r="J366" s="21"/>
-    </row>
-    <row r="367" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G367" s="23"/>
-      <c r="H367" s="24"/>
-      <c r="I367" s="20"/>
-      <c r="J367" s="21"/>
-    </row>
-    <row r="368" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G368" s="23"/>
-      <c r="H368" s="24"/>
-      <c r="I368" s="20"/>
-      <c r="J368" s="21"/>
-    </row>
-    <row r="369" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G369" s="23"/>
-      <c r="H369" s="24"/>
-      <c r="I369" s="20"/>
-      <c r="J369" s="21"/>
-    </row>
-    <row r="370" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G370" s="23"/>
-      <c r="H370" s="24"/>
-      <c r="I370" s="20"/>
-      <c r="J370" s="21"/>
-    </row>
-    <row r="371" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G371" s="23"/>
-      <c r="H371" s="24"/>
-      <c r="I371" s="20"/>
-      <c r="J371" s="21"/>
-    </row>
-    <row r="372" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G372" s="23"/>
-      <c r="H372" s="24"/>
-      <c r="I372" s="20"/>
-      <c r="J372" s="21"/>
-    </row>
-    <row r="373" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G373" s="23"/>
-      <c r="H373" s="24"/>
-      <c r="I373" s="20"/>
-      <c r="J373" s="21"/>
-    </row>
-    <row r="374" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G374" s="23"/>
-      <c r="H374" s="24"/>
-      <c r="I374" s="20"/>
-      <c r="J374" s="21"/>
-    </row>
-    <row r="375" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G375" s="23"/>
-      <c r="H375" s="24"/>
-      <c r="I375" s="20"/>
-      <c r="J375" s="21"/>
-    </row>
-    <row r="376" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G376" s="23"/>
-      <c r="H376" s="24"/>
-      <c r="I376" s="20"/>
-      <c r="J376" s="21"/>
-    </row>
-    <row r="377" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G377" s="23"/>
-      <c r="H377" s="24"/>
-      <c r="I377" s="20"/>
-      <c r="J377" s="21"/>
-    </row>
-    <row r="378" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G378" s="23"/>
-      <c r="H378" s="24"/>
-      <c r="I378" s="20"/>
-      <c r="J378" s="21"/>
-    </row>
-    <row r="379" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G379" s="23"/>
-      <c r="H379" s="24"/>
-      <c r="I379" s="20"/>
-      <c r="J379" s="21"/>
-    </row>
-    <row r="380" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G380" s="23"/>
-      <c r="H380" s="24"/>
-      <c r="I380" s="20"/>
-      <c r="J380" s="21"/>
-    </row>
-    <row r="381" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G381" s="23"/>
-      <c r="H381" s="24"/>
-      <c r="I381" s="20"/>
-      <c r="J381" s="21"/>
-    </row>
-    <row r="382" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G382" s="23"/>
-      <c r="H382" s="24"/>
-      <c r="I382" s="20"/>
-      <c r="J382" s="21"/>
-    </row>
-    <row r="383" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G383" s="23"/>
-      <c r="H383" s="24"/>
-      <c r="I383" s="20"/>
-      <c r="J383" s="21"/>
-    </row>
-    <row r="384" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G384" s="23"/>
-      <c r="H384" s="24"/>
-      <c r="I384" s="20"/>
-      <c r="J384" s="21"/>
-    </row>
-    <row r="385" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G385" s="23"/>
-      <c r="H385" s="24"/>
-      <c r="I385" s="20"/>
-      <c r="J385" s="21"/>
-    </row>
-    <row r="386" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G386" s="23"/>
-      <c r="H386" s="24"/>
-      <c r="I386" s="20"/>
-      <c r="J386" s="21"/>
-    </row>
-    <row r="387" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G387" s="23"/>
-      <c r="H387" s="24"/>
-      <c r="I387" s="20"/>
-      <c r="J387" s="21"/>
-    </row>
-    <row r="388" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G388" s="23"/>
-      <c r="H388" s="24"/>
-      <c r="I388" s="20"/>
-      <c r="J388" s="21"/>
-    </row>
-    <row r="389" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G389" s="23"/>
-      <c r="H389" s="24"/>
-      <c r="I389" s="20"/>
-      <c r="J389" s="21"/>
-    </row>
-    <row r="390" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G390" s="23"/>
-      <c r="H390" s="24"/>
-      <c r="I390" s="20"/>
-      <c r="J390" s="21"/>
-    </row>
-    <row r="391" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G391" s="23"/>
-      <c r="H391" s="24"/>
-      <c r="I391" s="20"/>
-      <c r="J391" s="21"/>
-    </row>
-    <row r="392" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G392" s="23"/>
-      <c r="H392" s="24"/>
-      <c r="I392" s="20"/>
-      <c r="J392" s="21"/>
-    </row>
-    <row r="393" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G393" s="23"/>
-      <c r="H393" s="24"/>
-      <c r="I393" s="20"/>
-      <c r="J393" s="21"/>
-    </row>
-    <row r="394" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G394" s="23"/>
-      <c r="H394" s="24"/>
-      <c r="I394" s="20"/>
-      <c r="J394" s="21"/>
-    </row>
-    <row r="395" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G395" s="23"/>
-      <c r="H395" s="24"/>
-      <c r="I395" s="20"/>
-      <c r="J395" s="21"/>
-    </row>
-    <row r="396" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G396" s="23"/>
-      <c r="H396" s="24"/>
-      <c r="I396" s="20"/>
-      <c r="J396" s="21"/>
-    </row>
-    <row r="397" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G397" s="23"/>
-      <c r="H397" s="24"/>
-      <c r="I397" s="20"/>
-      <c r="J397" s="21"/>
-    </row>
-    <row r="398" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G398" s="23"/>
-      <c r="H398" s="24"/>
-      <c r="I398" s="20"/>
-      <c r="J398" s="21"/>
-    </row>
-    <row r="399" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G399" s="23"/>
-      <c r="H399" s="24"/>
-      <c r="I399" s="20"/>
-      <c r="J399" s="21"/>
-    </row>
-    <row r="400" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G400" s="23"/>
-      <c r="H400" s="24"/>
-      <c r="I400" s="20"/>
-      <c r="J400" s="21"/>
-    </row>
-    <row r="401" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G401" s="23"/>
-      <c r="H401" s="24"/>
-      <c r="I401" s="20"/>
-      <c r="J401" s="21"/>
-    </row>
-    <row r="402" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G402" s="23"/>
-      <c r="H402" s="24"/>
-      <c r="I402" s="20"/>
-      <c r="J402" s="21"/>
-    </row>
-    <row r="403" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G403" s="23"/>
-      <c r="H403" s="24"/>
-      <c r="I403" s="20"/>
-      <c r="J403" s="21"/>
-    </row>
-    <row r="404" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G404" s="23"/>
-      <c r="H404" s="24"/>
-      <c r="I404" s="20"/>
-      <c r="J404" s="21"/>
-    </row>
-    <row r="405" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G405" s="23"/>
-      <c r="H405" s="24"/>
-      <c r="I405" s="20"/>
-      <c r="J405" s="21"/>
-    </row>
-    <row r="406" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G406" s="23"/>
-      <c r="H406" s="24"/>
-      <c r="I406" s="20"/>
-      <c r="J406" s="21"/>
-    </row>
-    <row r="407" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G407" s="23"/>
-      <c r="H407" s="24"/>
-      <c r="I407" s="20"/>
-      <c r="J407" s="21"/>
-    </row>
-    <row r="408" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G408" s="23"/>
-      <c r="H408" s="24"/>
-      <c r="I408" s="20"/>
-      <c r="J408" s="21"/>
-    </row>
-    <row r="409" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G409" s="23"/>
-      <c r="H409" s="24"/>
-      <c r="I409" s="20"/>
-      <c r="J409" s="21"/>
-    </row>
-    <row r="410" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G410" s="23"/>
-      <c r="H410" s="24"/>
-      <c r="I410" s="20"/>
-      <c r="J410" s="21"/>
-    </row>
-    <row r="411" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G411" s="23"/>
-      <c r="H411" s="24"/>
-      <c r="I411" s="20"/>
-      <c r="J411" s="21"/>
-    </row>
-    <row r="412" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G412" s="23"/>
-      <c r="H412" s="24"/>
-      <c r="I412" s="20"/>
-      <c r="J412" s="21"/>
-    </row>
-    <row r="413" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G413" s="23"/>
-      <c r="H413" s="24"/>
-      <c r="I413" s="20"/>
-      <c r="J413" s="21"/>
-    </row>
-    <row r="414" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G414" s="23"/>
-      <c r="H414" s="24"/>
-      <c r="I414" s="20"/>
-      <c r="J414" s="21"/>
-    </row>
-    <row r="415" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G415" s="23"/>
-      <c r="H415" s="24"/>
-      <c r="I415" s="20"/>
-      <c r="J415" s="21"/>
-    </row>
-    <row r="416" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G416" s="23"/>
-      <c r="H416" s="24"/>
-      <c r="I416" s="20"/>
-      <c r="J416" s="21"/>
-    </row>
-    <row r="417" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G417" s="23"/>
-      <c r="H417" s="24"/>
-      <c r="I417" s="20"/>
-      <c r="J417" s="21"/>
-    </row>
-    <row r="418" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G418" s="23"/>
-      <c r="H418" s="24"/>
-      <c r="I418" s="20"/>
-      <c r="J418" s="21"/>
-    </row>
-    <row r="419" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G419" s="23"/>
-      <c r="H419" s="24"/>
-      <c r="I419" s="20"/>
-      <c r="J419" s="21"/>
-    </row>
-    <row r="420" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G420" s="23"/>
-      <c r="H420" s="24"/>
-      <c r="I420" s="20"/>
-      <c r="J420" s="21"/>
-    </row>
-    <row r="421" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G421" s="23"/>
-      <c r="H421" s="24"/>
-      <c r="I421" s="20"/>
-      <c r="J421" s="21"/>
-    </row>
-    <row r="422" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G422" s="23"/>
-      <c r="H422" s="24"/>
-      <c r="I422" s="20"/>
-      <c r="J422" s="21"/>
-    </row>
-    <row r="423" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G423" s="23"/>
-      <c r="H423" s="24"/>
-      <c r="I423" s="20"/>
-      <c r="J423" s="21"/>
-    </row>
-    <row r="424" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G424" s="23"/>
-      <c r="H424" s="24"/>
-      <c r="I424" s="20"/>
-      <c r="J424" s="21"/>
-    </row>
-    <row r="425" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G425" s="23"/>
-      <c r="H425" s="24"/>
-      <c r="I425" s="20"/>
-      <c r="J425" s="21"/>
-    </row>
-    <row r="426" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G426" s="23"/>
-      <c r="H426" s="24"/>
-      <c r="I426" s="20"/>
-      <c r="J426" s="21"/>
-    </row>
-    <row r="427" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G427" s="23"/>
-      <c r="H427" s="24"/>
-      <c r="I427" s="20"/>
-      <c r="J427" s="21"/>
-    </row>
-    <row r="428" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G428" s="23"/>
-      <c r="H428" s="24"/>
-      <c r="I428" s="20"/>
-      <c r="J428" s="21"/>
-    </row>
-    <row r="429" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G429" s="23"/>
-      <c r="H429" s="24"/>
-      <c r="I429" s="20"/>
-      <c r="J429" s="21"/>
-    </row>
-    <row r="430" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G430" s="23"/>
-      <c r="H430" s="24"/>
-      <c r="I430" s="20"/>
-      <c r="J430" s="21"/>
-    </row>
-    <row r="431" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G431" s="23"/>
-      <c r="H431" s="24"/>
-      <c r="I431" s="20"/>
-      <c r="J431" s="21"/>
-    </row>
-    <row r="432" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G432" s="23"/>
-      <c r="H432" s="24"/>
-      <c r="I432" s="20"/>
-      <c r="J432" s="21"/>
-    </row>
-    <row r="433" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G433" s="23"/>
-      <c r="H433" s="24"/>
-      <c r="I433" s="20"/>
-      <c r="J433" s="21"/>
-    </row>
-    <row r="434" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G434" s="23"/>
-      <c r="H434" s="24"/>
-      <c r="I434" s="20"/>
-      <c r="J434" s="21"/>
-    </row>
-    <row r="435" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G435" s="23"/>
-      <c r="H435" s="24"/>
-      <c r="I435" s="20"/>
-      <c r="J435" s="21"/>
-    </row>
-    <row r="436" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G436" s="23"/>
-      <c r="H436" s="24"/>
-      <c r="I436" s="20"/>
-      <c r="J436" s="21"/>
-    </row>
-    <row r="437" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G437" s="23"/>
-      <c r="H437" s="24"/>
-      <c r="I437" s="20"/>
-      <c r="J437" s="21"/>
-    </row>
-    <row r="438" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G438" s="23"/>
-      <c r="H438" s="24"/>
-      <c r="I438" s="20"/>
-      <c r="J438" s="21"/>
-    </row>
-    <row r="439" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G439" s="23"/>
-      <c r="H439" s="24"/>
-      <c r="I439" s="20"/>
-      <c r="J439" s="21"/>
-    </row>
-    <row r="440" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G440" s="23"/>
-      <c r="H440" s="24"/>
-      <c r="I440" s="20"/>
-      <c r="J440" s="21"/>
-    </row>
-    <row r="441" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G441" s="23"/>
-      <c r="H441" s="24"/>
-      <c r="I441" s="20"/>
-      <c r="J441" s="21"/>
-    </row>
-    <row r="442" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G442" s="23"/>
-      <c r="H442" s="24"/>
-      <c r="I442" s="20"/>
-      <c r="J442" s="21"/>
-    </row>
-    <row r="443" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G443" s="23"/>
-      <c r="H443" s="24"/>
-      <c r="I443" s="20"/>
-      <c r="J443" s="21"/>
-    </row>
-    <row r="444" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G444" s="23"/>
-      <c r="H444" s="24"/>
-      <c r="I444" s="20"/>
-      <c r="J444" s="21"/>
-    </row>
-    <row r="445" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G445" s="23"/>
-      <c r="H445" s="24"/>
-      <c r="I445" s="20"/>
-      <c r="J445" s="21"/>
-    </row>
-    <row r="446" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G446" s="23"/>
-      <c r="H446" s="24"/>
-      <c r="I446" s="20"/>
-      <c r="J446" s="21"/>
-    </row>
-    <row r="447" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G447" s="23"/>
-      <c r="H447" s="24"/>
-      <c r="I447" s="20"/>
-      <c r="J447" s="21"/>
-    </row>
-    <row r="448" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G448" s="23"/>
-      <c r="H448" s="24"/>
-      <c r="I448" s="20"/>
-      <c r="J448" s="21"/>
-    </row>
-    <row r="449" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G449" s="23"/>
-      <c r="H449" s="24"/>
-      <c r="I449" s="20"/>
-      <c r="J449" s="21"/>
-    </row>
-    <row r="450" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G450" s="23"/>
-      <c r="H450" s="24"/>
-      <c r="I450" s="20"/>
-      <c r="J450" s="21"/>
-    </row>
-    <row r="451" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G451" s="23"/>
-      <c r="H451" s="24"/>
-      <c r="I451" s="20"/>
-      <c r="J451" s="21"/>
-    </row>
-    <row r="452" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G452" s="23"/>
-      <c r="H452" s="24"/>
-      <c r="I452" s="20"/>
-      <c r="J452" s="21"/>
-    </row>
-    <row r="453" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G453" s="23"/>
-      <c r="H453" s="24"/>
-      <c r="I453" s="20"/>
-      <c r="J453" s="21"/>
-    </row>
-    <row r="454" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G454" s="23"/>
-      <c r="H454" s="24"/>
-      <c r="I454" s="20"/>
-      <c r="J454" s="21"/>
-    </row>
-    <row r="455" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G455" s="23"/>
-      <c r="H455" s="24"/>
-      <c r="I455" s="20"/>
-      <c r="J455" s="21"/>
-    </row>
-    <row r="456" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G456" s="23"/>
-      <c r="H456" s="24"/>
-      <c r="I456" s="20"/>
-      <c r="J456" s="21"/>
-    </row>
-    <row r="457" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G457" s="23"/>
-      <c r="H457" s="24"/>
-      <c r="I457" s="20"/>
-      <c r="J457" s="21"/>
-    </row>
-    <row r="458" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G458" s="23"/>
-      <c r="H458" s="24"/>
-      <c r="I458" s="20"/>
-      <c r="J458" s="21"/>
-    </row>
-    <row r="459" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G459" s="23"/>
-      <c r="H459" s="24"/>
-      <c r="I459" s="20"/>
-      <c r="J459" s="21"/>
-    </row>
-    <row r="460" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G460" s="23"/>
-      <c r="H460" s="24"/>
-      <c r="I460" s="20"/>
-      <c r="J460" s="21"/>
-    </row>
-    <row r="461" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G461" s="23"/>
-      <c r="H461" s="24"/>
-      <c r="I461" s="20"/>
-      <c r="J461" s="21"/>
-    </row>
-    <row r="462" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G462" s="23"/>
-      <c r="H462" s="24"/>
-      <c r="I462" s="20"/>
-      <c r="J462" s="21"/>
-    </row>
-    <row r="463" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G463" s="23"/>
-      <c r="H463" s="24"/>
-      <c r="I463" s="20"/>
-      <c r="J463" s="21"/>
-    </row>
-    <row r="464" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G464" s="23"/>
-      <c r="H464" s="24"/>
-      <c r="I464" s="20"/>
-      <c r="J464" s="21"/>
-    </row>
-    <row r="465" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G465" s="23"/>
-      <c r="H465" s="24"/>
-      <c r="I465" s="20"/>
-      <c r="J465" s="21"/>
-    </row>
-    <row r="466" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G466" s="23"/>
-      <c r="H466" s="24"/>
-      <c r="I466" s="20"/>
-      <c r="J466" s="21"/>
-    </row>
-    <row r="467" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G467" s="23"/>
-      <c r="H467" s="24"/>
-      <c r="I467" s="20"/>
-      <c r="J467" s="21"/>
-    </row>
-    <row r="468" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G468" s="23"/>
-      <c r="H468" s="24"/>
-      <c r="I468" s="20"/>
-      <c r="J468" s="21"/>
-    </row>
-    <row r="469" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G469" s="23"/>
-      <c r="H469" s="24"/>
-      <c r="I469" s="20"/>
-      <c r="J469" s="21"/>
-    </row>
-    <row r="470" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G470" s="23"/>
-      <c r="H470" s="24"/>
-      <c r="I470" s="20"/>
-      <c r="J470" s="21"/>
-    </row>
-    <row r="471" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G471" s="23"/>
-      <c r="H471" s="24"/>
-      <c r="I471" s="20"/>
-      <c r="J471" s="21"/>
-    </row>
-    <row r="472" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G472" s="23"/>
-      <c r="H472" s="24"/>
-      <c r="I472" s="20"/>
-      <c r="J472" s="21"/>
-    </row>
-    <row r="473" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G473" s="23"/>
-      <c r="H473" s="24"/>
-      <c r="I473" s="20"/>
-      <c r="J473" s="21"/>
-    </row>
-    <row r="474" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G474" s="23"/>
-      <c r="H474" s="24"/>
-      <c r="I474" s="20"/>
-      <c r="J474" s="21"/>
-    </row>
-    <row r="475" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G475" s="23"/>
-      <c r="H475" s="24"/>
-      <c r="I475" s="20"/>
-      <c r="J475" s="21"/>
-    </row>
-    <row r="476" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G476" s="23"/>
-      <c r="H476" s="24"/>
-      <c r="I476" s="20"/>
-      <c r="J476" s="21"/>
-    </row>
-    <row r="477" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G477" s="23"/>
-      <c r="H477" s="24"/>
-      <c r="I477" s="20"/>
-      <c r="J477" s="21"/>
-    </row>
-    <row r="478" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G478" s="23"/>
-      <c r="H478" s="24"/>
-      <c r="I478" s="20"/>
-      <c r="J478" s="21"/>
-    </row>
-    <row r="479" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G479" s="23"/>
-      <c r="H479" s="24"/>
-      <c r="I479" s="20"/>
-      <c r="J479" s="21"/>
-    </row>
-    <row r="480" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G480" s="23"/>
-      <c r="H480" s="24"/>
-      <c r="I480" s="20"/>
-      <c r="J480" s="21"/>
-    </row>
-    <row r="481" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G481" s="23"/>
-      <c r="H481" s="24"/>
-      <c r="I481" s="20"/>
-      <c r="J481" s="21"/>
-    </row>
-    <row r="482" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G482" s="23"/>
-      <c r="H482" s="24"/>
-      <c r="I482" s="20"/>
-      <c r="J482" s="21"/>
-    </row>
-    <row r="483" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G483" s="23"/>
-      <c r="H483" s="24"/>
-      <c r="I483" s="20"/>
-      <c r="J483" s="21"/>
-    </row>
-    <row r="484" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G484" s="23"/>
-      <c r="H484" s="24"/>
-      <c r="I484" s="20"/>
-      <c r="J484" s="21"/>
-    </row>
-    <row r="485" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G485" s="23"/>
-      <c r="H485" s="24"/>
-      <c r="I485" s="20"/>
-      <c r="J485" s="21"/>
-    </row>
-    <row r="486" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G486" s="23"/>
-      <c r="H486" s="24"/>
-      <c r="I486" s="20"/>
-      <c r="J486" s="21"/>
-    </row>
-    <row r="487" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G487" s="23"/>
-      <c r="H487" s="24"/>
-      <c r="I487" s="20"/>
-      <c r="J487" s="21"/>
-    </row>
-    <row r="488" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G488" s="23"/>
-      <c r="H488" s="24"/>
-      <c r="I488" s="20"/>
-      <c r="J488" s="21"/>
-    </row>
-    <row r="489" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G489" s="23"/>
-      <c r="H489" s="24"/>
-      <c r="I489" s="20"/>
-      <c r="J489" s="21"/>
-    </row>
-    <row r="490" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G490" s="23"/>
-      <c r="H490" s="24"/>
-      <c r="I490" s="20"/>
-      <c r="J490" s="21"/>
-    </row>
-    <row r="491" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G491" s="23"/>
-      <c r="H491" s="24"/>
-      <c r="I491" s="20"/>
-      <c r="J491" s="21"/>
-    </row>
-    <row r="492" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G492" s="23"/>
-      <c r="H492" s="24"/>
-      <c r="I492" s="20"/>
-      <c r="J492" s="21"/>
-    </row>
-    <row r="493" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G493" s="23"/>
-      <c r="H493" s="24"/>
-      <c r="I493" s="20"/>
-      <c r="J493" s="21"/>
-    </row>
-    <row r="494" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G494" s="23"/>
-      <c r="H494" s="24"/>
-      <c r="I494" s="20"/>
-      <c r="J494" s="21"/>
-    </row>
-    <row r="495" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G495" s="23"/>
-      <c r="H495" s="24"/>
-      <c r="I495" s="20"/>
-      <c r="J495" s="21"/>
-    </row>
-    <row r="496" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G496" s="23"/>
-      <c r="H496" s="24"/>
-      <c r="I496" s="20"/>
-      <c r="J496" s="21"/>
-    </row>
-    <row r="497" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G497" s="23"/>
-      <c r="H497" s="24"/>
-      <c r="I497" s="20"/>
-      <c r="J497" s="21"/>
-    </row>
-    <row r="498" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G498" s="23"/>
-      <c r="H498" s="24"/>
-      <c r="I498" s="20"/>
-      <c r="J498" s="21"/>
-    </row>
-    <row r="499" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G499" s="23"/>
-      <c r="H499" s="24"/>
-      <c r="I499" s="20"/>
-      <c r="J499" s="21"/>
-    </row>
-    <row r="500" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G500" s="23"/>
-      <c r="H500" s="24"/>
-      <c r="I500" s="20"/>
-      <c r="J500" s="21"/>
-    </row>
-    <row r="501" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G501" s="23"/>
-      <c r="H501" s="24"/>
-      <c r="I501" s="20"/>
-      <c r="J501" s="21"/>
-    </row>
-    <row r="502" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G502" s="23"/>
-      <c r="H502" s="24"/>
-      <c r="I502" s="20"/>
-      <c r="J502" s="21"/>
-    </row>
-    <row r="503" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G503" s="23"/>
-      <c r="H503" s="24"/>
-      <c r="I503" s="20"/>
-      <c r="J503" s="21"/>
-    </row>
-    <row r="504" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G504" s="23"/>
-      <c r="H504" s="24"/>
-      <c r="I504" s="20"/>
-      <c r="J504" s="21"/>
-    </row>
-    <row r="505" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G505" s="23"/>
-      <c r="H505" s="24"/>
-      <c r="I505" s="20"/>
-      <c r="J505" s="21"/>
-    </row>
-    <row r="506" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G506" s="23"/>
-      <c r="H506" s="24"/>
-      <c r="I506" s="20"/>
-      <c r="J506" s="21"/>
-    </row>
-    <row r="507" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G507" s="23"/>
-      <c r="H507" s="24"/>
-      <c r="I507" s="20"/>
-      <c r="J507" s="21"/>
-    </row>
-    <row r="508" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G508" s="23"/>
-      <c r="H508" s="24"/>
-      <c r="I508" s="20"/>
-      <c r="J508" s="21"/>
-    </row>
-    <row r="509" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G509" s="23"/>
-      <c r="H509" s="24"/>
-      <c r="I509" s="20"/>
-      <c r="J509" s="21"/>
-    </row>
-    <row r="510" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G510" s="23"/>
-      <c r="H510" s="24"/>
-      <c r="I510" s="20"/>
-      <c r="J510" s="21"/>
-    </row>
-    <row r="511" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G511" s="23"/>
-      <c r="H511" s="24"/>
-      <c r="I511" s="20"/>
-      <c r="J511" s="21"/>
-    </row>
-    <row r="512" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G512" s="23"/>
-      <c r="H512" s="24"/>
-      <c r="I512" s="20"/>
-      <c r="J512" s="21"/>
-    </row>
-    <row r="513" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G513" s="23"/>
-      <c r="H513" s="24"/>
-      <c r="I513" s="20"/>
-      <c r="J513" s="21"/>
-    </row>
-    <row r="514" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G514" s="23"/>
-      <c r="H514" s="24"/>
-      <c r="I514" s="20"/>
-      <c r="J514" s="21"/>
-    </row>
-    <row r="515" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G515" s="23"/>
-      <c r="H515" s="24"/>
-      <c r="I515" s="20"/>
-      <c r="J515" s="21"/>
-    </row>
-    <row r="516" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G516" s="23"/>
-      <c r="H516" s="24"/>
-      <c r="I516" s="20"/>
-      <c r="J516" s="21"/>
-    </row>
-    <row r="517" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G517" s="23"/>
-      <c r="H517" s="24"/>
-      <c r="I517" s="20"/>
-      <c r="J517" s="21"/>
-    </row>
-    <row r="518" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G518" s="23"/>
-      <c r="H518" s="24"/>
-      <c r="I518" s="20"/>
-      <c r="J518" s="21"/>
-    </row>
-    <row r="519" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G519" s="23"/>
-      <c r="H519" s="24"/>
-      <c r="I519" s="20"/>
-      <c r="J519" s="21"/>
-    </row>
-    <row r="520" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G520" s="23"/>
-      <c r="H520" s="24"/>
-      <c r="I520" s="20"/>
-      <c r="J520" s="21"/>
-    </row>
-    <row r="521" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G521" s="23"/>
-      <c r="H521" s="24"/>
-      <c r="I521" s="20"/>
-      <c r="J521" s="21"/>
-    </row>
-    <row r="522" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G522" s="23"/>
-      <c r="H522" s="24"/>
-      <c r="I522" s="20"/>
-      <c r="J522" s="21"/>
-    </row>
-    <row r="523" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G523" s="23"/>
-      <c r="H523" s="24"/>
-      <c r="I523" s="20"/>
-      <c r="J523" s="21"/>
-    </row>
-    <row r="524" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G524" s="23"/>
-      <c r="H524" s="24"/>
-      <c r="I524" s="20"/>
-      <c r="J524" s="21"/>
-    </row>
-    <row r="525" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G525" s="23"/>
-      <c r="H525" s="24"/>
-      <c r="I525" s="20"/>
-      <c r="J525" s="21"/>
-    </row>
-    <row r="526" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G526" s="23"/>
-      <c r="H526" s="24"/>
-      <c r="I526" s="20"/>
-      <c r="J526" s="21"/>
-    </row>
-    <row r="527" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G527" s="23"/>
-      <c r="H527" s="24"/>
-      <c r="I527" s="20"/>
-      <c r="J527" s="21"/>
-    </row>
-    <row r="528" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G528" s="23"/>
-      <c r="H528" s="24"/>
-      <c r="I528" s="20"/>
-      <c r="J528" s="21"/>
-    </row>
-    <row r="529" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G529" s="23"/>
-      <c r="H529" s="24"/>
-      <c r="I529" s="20"/>
-      <c r="J529" s="21"/>
-    </row>
-    <row r="530" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G530" s="23"/>
-      <c r="H530" s="24"/>
-      <c r="I530" s="20"/>
-      <c r="J530" s="21"/>
-    </row>
-    <row r="531" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G531" s="23"/>
-      <c r="H531" s="24"/>
-      <c r="I531" s="20"/>
-      <c r="J531" s="21"/>
-    </row>
-    <row r="532" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G532" s="23"/>
-      <c r="H532" s="24"/>
-      <c r="I532" s="20"/>
-      <c r="J532" s="21"/>
-    </row>
-    <row r="533" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G533" s="23"/>
-      <c r="H533" s="24"/>
-      <c r="I533" s="20"/>
-      <c r="J533" s="21"/>
-    </row>
-    <row r="534" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G534" s="23"/>
-      <c r="H534" s="24"/>
-      <c r="I534" s="20"/>
-      <c r="J534" s="21"/>
-    </row>
-    <row r="535" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G535" s="23"/>
-      <c r="H535" s="24"/>
-      <c r="I535" s="20"/>
-      <c r="J535" s="21"/>
-    </row>
-    <row r="536" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G536" s="23"/>
-      <c r="H536" s="24"/>
-      <c r="I536" s="20"/>
-      <c r="J536" s="21"/>
-    </row>
-    <row r="537" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G537" s="23"/>
-      <c r="H537" s="24"/>
-      <c r="I537" s="20"/>
-      <c r="J537" s="21"/>
-    </row>
-    <row r="538" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G538" s="23"/>
-      <c r="H538" s="24"/>
-      <c r="I538" s="20"/>
-      <c r="J538" s="21"/>
-    </row>
-    <row r="539" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G539" s="23"/>
-      <c r="H539" s="24"/>
-      <c r="I539" s="20"/>
-      <c r="J539" s="21"/>
-    </row>
-    <row r="540" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G540" s="23"/>
-      <c r="H540" s="24"/>
-      <c r="I540" s="20"/>
-      <c r="J540" s="21"/>
-    </row>
-    <row r="541" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G541" s="23"/>
-      <c r="H541" s="24"/>
-      <c r="I541" s="20"/>
-      <c r="J541" s="21"/>
-    </row>
-    <row r="542" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G542" s="23"/>
-      <c r="H542" s="24"/>
-      <c r="I542" s="20"/>
-      <c r="J542" s="21"/>
-    </row>
-    <row r="543" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G543" s="23"/>
-      <c r="H543" s="24"/>
-      <c r="I543" s="20"/>
-      <c r="J543" s="21"/>
-    </row>
-    <row r="544" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G544" s="23"/>
-      <c r="H544" s="24"/>
-      <c r="I544" s="20"/>
-      <c r="J544" s="21"/>
-    </row>
-    <row r="545" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G545" s="23"/>
-      <c r="H545" s="24"/>
-      <c r="I545" s="20"/>
-      <c r="J545" s="21"/>
-    </row>
-    <row r="546" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G546" s="23"/>
-      <c r="H546" s="24"/>
-      <c r="I546" s="20"/>
-      <c r="J546" s="21"/>
-    </row>
-    <row r="547" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G547" s="23"/>
-      <c r="H547" s="24"/>
-      <c r="I547" s="20"/>
-      <c r="J547" s="21"/>
-    </row>
-    <row r="548" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G548" s="23"/>
-      <c r="H548" s="24"/>
-      <c r="I548" s="20"/>
-      <c r="J548" s="21"/>
-    </row>
-    <row r="549" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G549" s="23"/>
-      <c r="H549" s="24"/>
-      <c r="I549" s="20"/>
-      <c r="J549" s="21"/>
-    </row>
-    <row r="550" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G550" s="23"/>
-      <c r="H550" s="24"/>
-      <c r="I550" s="20"/>
-      <c r="J550" s="21"/>
-    </row>
-    <row r="551" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G551" s="23"/>
-      <c r="H551" s="24"/>
-      <c r="I551" s="20"/>
-      <c r="J551" s="21"/>
-    </row>
-    <row r="552" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G552" s="23"/>
-      <c r="H552" s="24"/>
-      <c r="I552" s="20"/>
-      <c r="J552" s="21"/>
-    </row>
-    <row r="553" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G553" s="23"/>
-      <c r="H553" s="24"/>
-      <c r="I553" s="20"/>
-      <c r="J553" s="21"/>
-    </row>
-    <row r="554" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G554" s="23"/>
-      <c r="H554" s="24"/>
-      <c r="I554" s="20"/>
-      <c r="J554" s="21"/>
-    </row>
-    <row r="555" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G555" s="23"/>
-      <c r="H555" s="24"/>
-      <c r="I555" s="20"/>
-      <c r="J555" s="21"/>
-    </row>
-    <row r="556" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G556" s="23"/>
-      <c r="H556" s="24"/>
-      <c r="I556" s="20"/>
-      <c r="J556" s="21"/>
-    </row>
-    <row r="557" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G557" s="23"/>
-      <c r="H557" s="24"/>
-      <c r="I557" s="20"/>
-      <c r="J557" s="21"/>
-    </row>
-    <row r="558" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G558" s="23"/>
-      <c r="H558" s="24"/>
-      <c r="I558" s="20"/>
-      <c r="J558" s="21"/>
-    </row>
-    <row r="559" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G559" s="23"/>
-      <c r="H559" s="24"/>
-      <c r="I559" s="20"/>
-      <c r="J559" s="21"/>
-    </row>
-    <row r="560" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G560" s="23"/>
-      <c r="H560" s="24"/>
-      <c r="I560" s="20"/>
-      <c r="J560" s="21"/>
-    </row>
-    <row r="561" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G561" s="23"/>
-      <c r="H561" s="24"/>
-      <c r="I561" s="20"/>
-      <c r="J561" s="21"/>
-    </row>
-    <row r="562" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G562" s="23"/>
-      <c r="H562" s="24"/>
-      <c r="I562" s="20"/>
-      <c r="J562" s="21"/>
-    </row>
-    <row r="563" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G563" s="23"/>
-      <c r="H563" s="24"/>
-      <c r="I563" s="20"/>
-      <c r="J563" s="21"/>
-    </row>
-    <row r="564" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G564" s="23"/>
-      <c r="H564" s="24"/>
-      <c r="I564" s="20"/>
-      <c r="J564" s="21"/>
-    </row>
-    <row r="565" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G565" s="23"/>
-      <c r="H565" s="24"/>
-      <c r="I565" s="20"/>
-      <c r="J565" s="21"/>
-    </row>
-    <row r="566" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G566" s="23"/>
-      <c r="H566" s="24"/>
-      <c r="I566" s="20"/>
-      <c r="J566" s="21"/>
-    </row>
-    <row r="567" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G567" s="23"/>
-      <c r="H567" s="24"/>
-      <c r="I567" s="20"/>
-      <c r="J567" s="21"/>
-    </row>
-    <row r="568" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G568" s="23"/>
-      <c r="H568" s="24"/>
-      <c r="I568" s="20"/>
-      <c r="J568" s="21"/>
-    </row>
-    <row r="569" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G569" s="23"/>
-      <c r="H569" s="24"/>
-      <c r="I569" s="20"/>
-      <c r="J569" s="21"/>
-    </row>
-    <row r="570" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G570" s="23"/>
-      <c r="H570" s="24"/>
-      <c r="I570" s="20"/>
-      <c r="J570" s="21"/>
-    </row>
-    <row r="571" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G571" s="23"/>
-      <c r="H571" s="24"/>
-      <c r="I571" s="20"/>
-      <c r="J571" s="21"/>
-    </row>
-    <row r="572" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G572" s="23"/>
-      <c r="H572" s="24"/>
-      <c r="I572" s="20"/>
-      <c r="J572" s="21"/>
-    </row>
-    <row r="573" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G573" s="23"/>
-      <c r="H573" s="24"/>
-      <c r="I573" s="20"/>
-      <c r="J573" s="21"/>
-    </row>
-    <row r="574" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G574" s="23"/>
-      <c r="H574" s="24"/>
-      <c r="I574" s="20"/>
-      <c r="J574" s="21"/>
-    </row>
-    <row r="575" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G575" s="23"/>
-      <c r="H575" s="24"/>
-      <c r="I575" s="20"/>
-      <c r="J575" s="21"/>
-    </row>
-    <row r="576" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G576" s="23"/>
-      <c r="H576" s="24"/>
-      <c r="I576" s="20"/>
-      <c r="J576" s="21"/>
-    </row>
-    <row r="577" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G577" s="23"/>
-      <c r="H577" s="24"/>
-      <c r="I577" s="20"/>
-      <c r="J577" s="21"/>
-    </row>
-    <row r="578" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G578" s="23"/>
-      <c r="H578" s="24"/>
-      <c r="I578" s="20"/>
-      <c r="J578" s="21"/>
-    </row>
-    <row r="579" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G579" s="23"/>
-      <c r="H579" s="24"/>
-      <c r="I579" s="20"/>
-      <c r="J579" s="21"/>
-    </row>
-    <row r="580" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G580" s="23"/>
-      <c r="H580" s="24"/>
-      <c r="I580" s="20"/>
-      <c r="J580" s="21"/>
-    </row>
-    <row r="581" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G581" s="23"/>
-      <c r="H581" s="24"/>
-      <c r="I581" s="20"/>
-      <c r="J581" s="21"/>
-    </row>
-    <row r="582" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G582" s="23"/>
-      <c r="H582" s="24"/>
-      <c r="I582" s="20"/>
-      <c r="J582" s="21"/>
-    </row>
-    <row r="583" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G583" s="23"/>
-      <c r="H583" s="24"/>
-      <c r="I583" s="20"/>
-      <c r="J583" s="21"/>
-    </row>
-    <row r="584" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G584" s="23"/>
-      <c r="H584" s="24"/>
-      <c r="I584" s="20"/>
-      <c r="J584" s="21"/>
-    </row>
-    <row r="585" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G585" s="23"/>
-      <c r="H585" s="24"/>
-      <c r="I585" s="20"/>
-      <c r="J585" s="21"/>
-    </row>
-    <row r="586" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G586" s="23"/>
-      <c r="H586" s="24"/>
-      <c r="I586" s="20"/>
-      <c r="J586" s="21"/>
-    </row>
-    <row r="587" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G587" s="23"/>
-      <c r="H587" s="24"/>
-      <c r="I587" s="20"/>
-      <c r="J587" s="21"/>
-    </row>
-    <row r="588" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G588" s="23"/>
-      <c r="H588" s="24"/>
-      <c r="I588" s="20"/>
-      <c r="J588" s="21"/>
-    </row>
-    <row r="589" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G589" s="23"/>
-      <c r="H589" s="24"/>
-      <c r="I589" s="20"/>
-      <c r="J589" s="21"/>
-    </row>
-    <row r="590" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G590" s="23"/>
-      <c r="H590" s="24"/>
-      <c r="I590" s="20"/>
-      <c r="J590" s="21"/>
-    </row>
-    <row r="591" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G591" s="23"/>
-      <c r="H591" s="24"/>
-      <c r="I591" s="20"/>
-      <c r="J591" s="21"/>
-    </row>
-    <row r="592" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G592" s="23"/>
-      <c r="H592" s="24"/>
-      <c r="I592" s="20"/>
-      <c r="J592" s="21"/>
-    </row>
-    <row r="593" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G593" s="23"/>
-      <c r="H593" s="24"/>
-      <c r="I593" s="20"/>
-      <c r="J593" s="21"/>
-    </row>
-    <row r="594" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G594" s="23"/>
-      <c r="H594" s="24"/>
-      <c r="I594" s="20"/>
-      <c r="J594" s="21"/>
-    </row>
-    <row r="595" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G595" s="23"/>
-      <c r="H595" s="24"/>
-      <c r="I595" s="20"/>
-      <c r="J595" s="21"/>
-    </row>
-    <row r="596" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G596" s="23"/>
-      <c r="H596" s="24"/>
-      <c r="I596" s="20"/>
-      <c r="J596" s="21"/>
-    </row>
-    <row r="597" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G597" s="23"/>
-      <c r="H597" s="24"/>
-      <c r="I597" s="20"/>
-      <c r="J597" s="21"/>
-    </row>
-    <row r="598" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G598" s="23"/>
-      <c r="H598" s="24"/>
-      <c r="I598" s="20"/>
-      <c r="J598" s="21"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="26">
+        <f>SUM(G6:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H65" s="23"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H69" s="23"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H71" s="23"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H72" s="23"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H73" s="23"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H74" s="23"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H75" s="23"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H76" s="23"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H77" s="23"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H78" s="23"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H79" s="23"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H80" s="23"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H81" s="23"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H82" s="23"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H83" s="23"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H84" s="23"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H85" s="23"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H86" s="23"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H87" s="23"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H88" s="23"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H90" s="23"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H92" s="23"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H93" s="23"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H94" s="23"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H95" s="23"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H96" s="23"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97" s="23"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H98" s="23"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H99" s="23"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H100" s="23"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H101" s="23"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H102" s="23"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H103" s="23"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H104" s="23"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="20"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H105" s="23"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="20"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H106" s="23"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="20"/>
+      <c r="K106" s="21"/>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H107" s="23"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="20"/>
+      <c r="K107" s="21"/>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H108" s="23"/>
+      <c r="I108" s="24"/>
+      <c r="J108" s="20"/>
+      <c r="K108" s="21"/>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="23"/>
+      <c r="I109" s="24"/>
+      <c r="J109" s="20"/>
+      <c r="K109" s="21"/>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="23"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="20"/>
+      <c r="K110" s="21"/>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H111" s="23"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="20"/>
+      <c r="K111" s="21"/>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H112" s="23"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="20"/>
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H113" s="23"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="20"/>
+      <c r="K113" s="21"/>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H114" s="23"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="20"/>
+      <c r="K114" s="21"/>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="23"/>
+      <c r="I115" s="24"/>
+      <c r="J115" s="20"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" s="23"/>
+      <c r="I116" s="24"/>
+      <c r="J116" s="20"/>
+      <c r="K116" s="21"/>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" s="23"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="20"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H118" s="23"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="20"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="23"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="20"/>
+      <c r="K119" s="21"/>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" s="23"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="20"/>
+      <c r="K120" s="21"/>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="23"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="20"/>
+      <c r="K121" s="21"/>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="20"/>
+      <c r="K122" s="21"/>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H123" s="23"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="20"/>
+      <c r="K123" s="21"/>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H124" s="23"/>
+      <c r="I124" s="24"/>
+      <c r="J124" s="20"/>
+      <c r="K124" s="21"/>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H125" s="23"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="20"/>
+      <c r="K125" s="21"/>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H126" s="23"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="20"/>
+      <c r="K126" s="21"/>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H127" s="23"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="20"/>
+      <c r="K127" s="21"/>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H128" s="23"/>
+      <c r="I128" s="24"/>
+      <c r="J128" s="20"/>
+      <c r="K128" s="21"/>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H129" s="23"/>
+      <c r="I129" s="24"/>
+      <c r="J129" s="20"/>
+      <c r="K129" s="21"/>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H130" s="23"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="20"/>
+      <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H131" s="23"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="20"/>
+      <c r="K131" s="21"/>
+    </row>
+    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H132" s="23"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="20"/>
+      <c r="K132" s="21"/>
+    </row>
+    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H133" s="23"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="20"/>
+      <c r="K133" s="21"/>
+    </row>
+    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H134" s="23"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="20"/>
+      <c r="K134" s="21"/>
+    </row>
+    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H135" s="23"/>
+      <c r="I135" s="24"/>
+      <c r="J135" s="20"/>
+      <c r="K135" s="21"/>
+    </row>
+    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H136" s="23"/>
+      <c r="I136" s="24"/>
+      <c r="J136" s="20"/>
+      <c r="K136" s="21"/>
+    </row>
+    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H137" s="23"/>
+      <c r="I137" s="24"/>
+      <c r="J137" s="20"/>
+      <c r="K137" s="21"/>
+    </row>
+    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H138" s="23"/>
+      <c r="I138" s="24"/>
+      <c r="J138" s="20"/>
+      <c r="K138" s="21"/>
+    </row>
+    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H139" s="23"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="21"/>
+    </row>
+    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H140" s="23"/>
+      <c r="I140" s="24"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="21"/>
+    </row>
+    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H141" s="23"/>
+      <c r="I141" s="24"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H142" s="23"/>
+      <c r="I142" s="24"/>
+      <c r="J142" s="20"/>
+      <c r="K142" s="21"/>
+    </row>
+    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H143" s="23"/>
+      <c r="I143" s="24"/>
+      <c r="J143" s="20"/>
+      <c r="K143" s="21"/>
+    </row>
+    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H144" s="23"/>
+      <c r="I144" s="24"/>
+      <c r="J144" s="20"/>
+      <c r="K144" s="21"/>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H145" s="23"/>
+      <c r="I145" s="24"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="21"/>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H146" s="23"/>
+      <c r="I146" s="24"/>
+      <c r="J146" s="20"/>
+      <c r="K146" s="21"/>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H147" s="23"/>
+      <c r="I147" s="24"/>
+      <c r="J147" s="20"/>
+      <c r="K147" s="21"/>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H148" s="23"/>
+      <c r="I148" s="24"/>
+      <c r="J148" s="20"/>
+      <c r="K148" s="21"/>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H149" s="23"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="20"/>
+      <c r="K149" s="21"/>
+    </row>
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H150" s="23"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="20"/>
+      <c r="K150" s="21"/>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H151" s="23"/>
+      <c r="I151" s="24"/>
+      <c r="J151" s="20"/>
+      <c r="K151" s="21"/>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H152" s="23"/>
+      <c r="I152" s="24"/>
+      <c r="J152" s="20"/>
+      <c r="K152" s="21"/>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H153" s="23"/>
+      <c r="I153" s="24"/>
+      <c r="J153" s="20"/>
+      <c r="K153" s="21"/>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H154" s="23"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="20"/>
+      <c r="K154" s="21"/>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H155" s="23"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="20"/>
+      <c r="K155" s="21"/>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H156" s="23"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="20"/>
+      <c r="K156" s="21"/>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H157" s="23"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="20"/>
+      <c r="K157" s="21"/>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H158" s="23"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="20"/>
+      <c r="K158" s="21"/>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H159" s="23"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="20"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H160" s="23"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="20"/>
+      <c r="K160" s="21"/>
+    </row>
+    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H161" s="23"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="20"/>
+      <c r="K161" s="21"/>
+    </row>
+    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H162" s="23"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="20"/>
+      <c r="K162" s="21"/>
+    </row>
+    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H163" s="23"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="20"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H164" s="23"/>
+      <c r="I164" s="24"/>
+      <c r="J164" s="20"/>
+      <c r="K164" s="21"/>
+    </row>
+    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H165" s="23"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="20"/>
+      <c r="K165" s="21"/>
+    </row>
+    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H166" s="23"/>
+      <c r="I166" s="24"/>
+      <c r="J166" s="20"/>
+      <c r="K166" s="21"/>
+    </row>
+    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H167" s="23"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="20"/>
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H168" s="23"/>
+      <c r="I168" s="24"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="21"/>
+    </row>
+    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H169" s="23"/>
+      <c r="I169" s="24"/>
+      <c r="J169" s="20"/>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H170" s="23"/>
+      <c r="I170" s="24"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="21"/>
+    </row>
+    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H171" s="23"/>
+      <c r="I171" s="24"/>
+      <c r="J171" s="20"/>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H172" s="23"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H173" s="23"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H174" s="23"/>
+      <c r="I174" s="24"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="21"/>
+    </row>
+    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H175" s="23"/>
+      <c r="I175" s="24"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="21"/>
+    </row>
+    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H176" s="23"/>
+      <c r="I176" s="24"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="21"/>
+    </row>
+    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H177" s="23"/>
+      <c r="I177" s="24"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H178" s="23"/>
+      <c r="I178" s="24"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="21"/>
+    </row>
+    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H179" s="23"/>
+      <c r="I179" s="24"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="21"/>
+    </row>
+    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H180" s="23"/>
+      <c r="I180" s="24"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H181" s="23"/>
+      <c r="I181" s="24"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="21"/>
+    </row>
+    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H182" s="23"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="20"/>
+      <c r="K182" s="21"/>
+    </row>
+    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H183" s="23"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="21"/>
+    </row>
+    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H184" s="23"/>
+      <c r="I184" s="24"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="21"/>
+    </row>
+    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H185" s="23"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H186" s="23"/>
+      <c r="I186" s="24"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="21"/>
+    </row>
+    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H187" s="23"/>
+      <c r="I187" s="24"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H188" s="23"/>
+      <c r="I188" s="24"/>
+      <c r="J188" s="20"/>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H189" s="23"/>
+      <c r="I189" s="24"/>
+      <c r="J189" s="20"/>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H190" s="23"/>
+      <c r="I190" s="24"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="21"/>
+    </row>
+    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H191" s="23"/>
+      <c r="I191" s="24"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="21"/>
+    </row>
+    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H192" s="23"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="21"/>
+    </row>
+    <row r="193" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H193" s="23"/>
+      <c r="I193" s="24"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="21"/>
+    </row>
+    <row r="194" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H194" s="23"/>
+      <c r="I194" s="24"/>
+      <c r="J194" s="20"/>
+      <c r="K194" s="21"/>
+    </row>
+    <row r="195" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H195" s="23"/>
+      <c r="I195" s="24"/>
+      <c r="J195" s="20"/>
+      <c r="K195" s="21"/>
+    </row>
+    <row r="196" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H196" s="23"/>
+      <c r="I196" s="24"/>
+      <c r="J196" s="20"/>
+      <c r="K196" s="21"/>
+    </row>
+    <row r="197" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H197" s="23"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="20"/>
+      <c r="K197" s="21"/>
+    </row>
+    <row r="198" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H198" s="23"/>
+      <c r="I198" s="24"/>
+      <c r="J198" s="20"/>
+      <c r="K198" s="21"/>
+    </row>
+    <row r="199" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H199" s="23"/>
+      <c r="I199" s="24"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="21"/>
+    </row>
+    <row r="200" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H200" s="23"/>
+      <c r="I200" s="24"/>
+      <c r="J200" s="20"/>
+      <c r="K200" s="21"/>
+    </row>
+    <row r="201" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H201" s="23"/>
+      <c r="I201" s="24"/>
+      <c r="J201" s="20"/>
+      <c r="K201" s="21"/>
+    </row>
+    <row r="202" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H202" s="23"/>
+      <c r="I202" s="24"/>
+      <c r="J202" s="20"/>
+      <c r="K202" s="21"/>
+    </row>
+    <row r="203" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H203" s="23"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="20"/>
+      <c r="K203" s="21"/>
+    </row>
+    <row r="204" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H204" s="23"/>
+      <c r="I204" s="24"/>
+      <c r="J204" s="20"/>
+      <c r="K204" s="21"/>
+    </row>
+    <row r="205" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H205" s="23"/>
+      <c r="I205" s="24"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="21"/>
+    </row>
+    <row r="206" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H206" s="23"/>
+      <c r="I206" s="24"/>
+      <c r="J206" s="20"/>
+      <c r="K206" s="21"/>
+    </row>
+    <row r="207" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H207" s="23"/>
+      <c r="I207" s="24"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="21"/>
+    </row>
+    <row r="208" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H208" s="23"/>
+      <c r="I208" s="24"/>
+      <c r="J208" s="20"/>
+      <c r="K208" s="21"/>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H209" s="23"/>
+      <c r="I209" s="24"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="21"/>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H210" s="23"/>
+      <c r="I210" s="24"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="21"/>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H211" s="23"/>
+      <c r="I211" s="24"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="21"/>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H212" s="23"/>
+      <c r="I212" s="24"/>
+      <c r="J212" s="20"/>
+      <c r="K212" s="21"/>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H213" s="23"/>
+      <c r="I213" s="24"/>
+      <c r="J213" s="20"/>
+      <c r="K213" s="21"/>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H214" s="23"/>
+      <c r="I214" s="24"/>
+      <c r="J214" s="20"/>
+      <c r="K214" s="21"/>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H215" s="23"/>
+      <c r="I215" s="24"/>
+      <c r="J215" s="20"/>
+      <c r="K215" s="21"/>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H216" s="23"/>
+      <c r="I216" s="24"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="21"/>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H217" s="23"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="20"/>
+      <c r="K217" s="21"/>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H218" s="23"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="21"/>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H219" s="23"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="20"/>
+      <c r="K219" s="21"/>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H220" s="23"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="20"/>
+      <c r="K220" s="21"/>
+    </row>
+    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H221" s="23"/>
+      <c r="I221" s="24"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="21"/>
+    </row>
+    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H222" s="23"/>
+      <c r="I222" s="24"/>
+      <c r="J222" s="20"/>
+      <c r="K222" s="21"/>
+    </row>
+    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H223" s="23"/>
+      <c r="I223" s="24"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="21"/>
+    </row>
+    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H224" s="23"/>
+      <c r="I224" s="24"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="21"/>
+    </row>
+    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H225" s="23"/>
+      <c r="I225" s="24"/>
+      <c r="J225" s="20"/>
+      <c r="K225" s="21"/>
+    </row>
+    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H226" s="23"/>
+      <c r="I226" s="24"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="21"/>
+    </row>
+    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H227" s="23"/>
+      <c r="I227" s="24"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="21"/>
+    </row>
+    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H228" s="23"/>
+      <c r="I228" s="24"/>
+      <c r="J228" s="20"/>
+      <c r="K228" s="21"/>
+    </row>
+    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H229" s="23"/>
+      <c r="I229" s="24"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="21"/>
+    </row>
+    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H230" s="23"/>
+      <c r="I230" s="24"/>
+      <c r="J230" s="20"/>
+      <c r="K230" s="21"/>
+    </row>
+    <row r="231" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H231" s="23"/>
+      <c r="I231" s="24"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="21"/>
+    </row>
+    <row r="232" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H232" s="23"/>
+      <c r="I232" s="24"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="21"/>
+    </row>
+    <row r="233" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H233" s="23"/>
+      <c r="I233" s="24"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="21"/>
+    </row>
+    <row r="234" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H234" s="23"/>
+      <c r="I234" s="24"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="21"/>
+    </row>
+    <row r="235" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H235" s="23"/>
+      <c r="I235" s="24"/>
+      <c r="J235" s="20"/>
+      <c r="K235" s="21"/>
+    </row>
+    <row r="236" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H236" s="23"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="20"/>
+      <c r="K236" s="21"/>
+    </row>
+    <row r="237" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H237" s="23"/>
+      <c r="I237" s="24"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="21"/>
+    </row>
+    <row r="238" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H238" s="23"/>
+      <c r="I238" s="24"/>
+      <c r="J238" s="20"/>
+      <c r="K238" s="21"/>
+    </row>
+    <row r="239" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H239" s="23"/>
+      <c r="I239" s="24"/>
+      <c r="J239" s="20"/>
+      <c r="K239" s="21"/>
+    </row>
+    <row r="240" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H240" s="23"/>
+      <c r="I240" s="24"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="21"/>
+    </row>
+    <row r="241" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H241" s="23"/>
+      <c r="I241" s="24"/>
+      <c r="J241" s="20"/>
+      <c r="K241" s="21"/>
+    </row>
+    <row r="242" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H242" s="23"/>
+      <c r="I242" s="24"/>
+      <c r="J242" s="20"/>
+      <c r="K242" s="21"/>
+    </row>
+    <row r="243" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H243" s="23"/>
+      <c r="I243" s="24"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="21"/>
+    </row>
+    <row r="244" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H244" s="23"/>
+      <c r="I244" s="24"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="21"/>
+    </row>
+    <row r="245" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H245" s="23"/>
+      <c r="I245" s="24"/>
+      <c r="J245" s="20"/>
+      <c r="K245" s="21"/>
+    </row>
+    <row r="246" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H246" s="23"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="20"/>
+      <c r="K246" s="21"/>
+    </row>
+    <row r="247" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H247" s="23"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="20"/>
+      <c r="K247" s="21"/>
+    </row>
+    <row r="248" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H248" s="23"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="20"/>
+      <c r="K248" s="21"/>
+    </row>
+    <row r="249" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H249" s="23"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="20"/>
+      <c r="K249" s="21"/>
+    </row>
+    <row r="250" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H250" s="23"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="20"/>
+      <c r="K250" s="21"/>
+    </row>
+    <row r="251" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H251" s="23"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="20"/>
+      <c r="K251" s="21"/>
+    </row>
+    <row r="252" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H252" s="23"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="20"/>
+      <c r="K252" s="21"/>
+    </row>
+    <row r="253" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H253" s="23"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="20"/>
+      <c r="K253" s="21"/>
+    </row>
+    <row r="254" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H254" s="23"/>
+      <c r="I254" s="24"/>
+      <c r="J254" s="20"/>
+      <c r="K254" s="21"/>
+    </row>
+    <row r="255" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H255" s="23"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="20"/>
+      <c r="K255" s="21"/>
+    </row>
+    <row r="256" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H256" s="23"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="20"/>
+      <c r="K256" s="21"/>
+    </row>
+    <row r="257" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H257" s="23"/>
+      <c r="I257" s="24"/>
+      <c r="J257" s="20"/>
+      <c r="K257" s="21"/>
+    </row>
+    <row r="258" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H258" s="23"/>
+      <c r="I258" s="24"/>
+      <c r="J258" s="20"/>
+      <c r="K258" s="21"/>
+    </row>
+    <row r="259" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H259" s="23"/>
+      <c r="I259" s="24"/>
+      <c r="J259" s="20"/>
+      <c r="K259" s="21"/>
+    </row>
+    <row r="260" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H260" s="23"/>
+      <c r="I260" s="24"/>
+      <c r="J260" s="20"/>
+      <c r="K260" s="21"/>
+    </row>
+    <row r="261" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H261" s="23"/>
+      <c r="I261" s="24"/>
+      <c r="J261" s="20"/>
+      <c r="K261" s="21"/>
+    </row>
+    <row r="262" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H262" s="23"/>
+      <c r="I262" s="24"/>
+      <c r="J262" s="20"/>
+      <c r="K262" s="21"/>
+    </row>
+    <row r="263" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H263" s="23"/>
+      <c r="I263" s="24"/>
+      <c r="J263" s="20"/>
+      <c r="K263" s="21"/>
+    </row>
+    <row r="264" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H264" s="23"/>
+      <c r="I264" s="24"/>
+      <c r="J264" s="20"/>
+      <c r="K264" s="21"/>
+    </row>
+    <row r="265" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H265" s="23"/>
+      <c r="I265" s="24"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="21"/>
+    </row>
+    <row r="266" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H266" s="23"/>
+      <c r="I266" s="24"/>
+      <c r="J266" s="20"/>
+      <c r="K266" s="21"/>
+    </row>
+    <row r="267" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H267" s="23"/>
+      <c r="I267" s="24"/>
+      <c r="J267" s="20"/>
+      <c r="K267" s="21"/>
+    </row>
+    <row r="268" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H268" s="23"/>
+      <c r="I268" s="24"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="21"/>
+    </row>
+    <row r="269" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H269" s="23"/>
+      <c r="I269" s="24"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="21"/>
+    </row>
+    <row r="270" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H270" s="23"/>
+      <c r="I270" s="24"/>
+      <c r="J270" s="20"/>
+      <c r="K270" s="21"/>
+    </row>
+    <row r="271" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H271" s="23"/>
+      <c r="I271" s="24"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="21"/>
+    </row>
+    <row r="272" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H272" s="23"/>
+      <c r="I272" s="24"/>
+      <c r="J272" s="20"/>
+      <c r="K272" s="21"/>
+    </row>
+    <row r="273" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H273" s="23"/>
+      <c r="I273" s="24"/>
+      <c r="J273" s="20"/>
+      <c r="K273" s="21"/>
+    </row>
+    <row r="274" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H274" s="23"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="20"/>
+      <c r="K274" s="21"/>
+    </row>
+    <row r="275" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H275" s="23"/>
+      <c r="I275" s="24"/>
+      <c r="J275" s="20"/>
+      <c r="K275" s="21"/>
+    </row>
+    <row r="276" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H276" s="23"/>
+      <c r="I276" s="24"/>
+      <c r="J276" s="20"/>
+      <c r="K276" s="21"/>
+    </row>
+    <row r="277" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H277" s="23"/>
+      <c r="I277" s="24"/>
+      <c r="J277" s="20"/>
+      <c r="K277" s="21"/>
+    </row>
+    <row r="278" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H278" s="23"/>
+      <c r="I278" s="24"/>
+      <c r="J278" s="20"/>
+      <c r="K278" s="21"/>
+    </row>
+    <row r="279" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H279" s="23"/>
+      <c r="I279" s="24"/>
+      <c r="J279" s="20"/>
+      <c r="K279" s="21"/>
+    </row>
+    <row r="280" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H280" s="23"/>
+      <c r="I280" s="24"/>
+      <c r="J280" s="20"/>
+      <c r="K280" s="21"/>
+    </row>
+    <row r="281" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H281" s="23"/>
+      <c r="I281" s="24"/>
+      <c r="J281" s="20"/>
+      <c r="K281" s="21"/>
+    </row>
+    <row r="282" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H282" s="23"/>
+      <c r="I282" s="24"/>
+      <c r="J282" s="20"/>
+      <c r="K282" s="21"/>
+    </row>
+    <row r="283" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H283" s="23"/>
+      <c r="I283" s="24"/>
+      <c r="J283" s="20"/>
+      <c r="K283" s="21"/>
+    </row>
+    <row r="284" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H284" s="23"/>
+      <c r="I284" s="24"/>
+      <c r="J284" s="20"/>
+      <c r="K284" s="21"/>
+    </row>
+    <row r="285" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H285" s="23"/>
+      <c r="I285" s="24"/>
+      <c r="J285" s="20"/>
+      <c r="K285" s="21"/>
+    </row>
+    <row r="286" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H286" s="23"/>
+      <c r="I286" s="24"/>
+      <c r="J286" s="20"/>
+      <c r="K286" s="21"/>
+    </row>
+    <row r="287" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H287" s="23"/>
+      <c r="I287" s="24"/>
+      <c r="J287" s="20"/>
+      <c r="K287" s="21"/>
+    </row>
+    <row r="288" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H288" s="23"/>
+      <c r="I288" s="24"/>
+      <c r="J288" s="20"/>
+      <c r="K288" s="21"/>
+    </row>
+    <row r="289" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H289" s="23"/>
+      <c r="I289" s="24"/>
+      <c r="J289" s="20"/>
+      <c r="K289" s="21"/>
+    </row>
+    <row r="290" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H290" s="23"/>
+      <c r="I290" s="24"/>
+      <c r="J290" s="20"/>
+      <c r="K290" s="21"/>
+    </row>
+    <row r="291" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H291" s="23"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="20"/>
+      <c r="K291" s="21"/>
+    </row>
+    <row r="292" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H292" s="23"/>
+      <c r="I292" s="24"/>
+      <c r="J292" s="20"/>
+      <c r="K292" s="21"/>
+    </row>
+    <row r="293" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H293" s="23"/>
+      <c r="I293" s="24"/>
+      <c r="J293" s="20"/>
+      <c r="K293" s="21"/>
+    </row>
+    <row r="294" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H294" s="23"/>
+      <c r="I294" s="24"/>
+      <c r="J294" s="20"/>
+      <c r="K294" s="21"/>
+    </row>
+    <row r="295" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H295" s="23"/>
+      <c r="I295" s="24"/>
+      <c r="J295" s="20"/>
+      <c r="K295" s="21"/>
+    </row>
+    <row r="296" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H296" s="23"/>
+      <c r="I296" s="24"/>
+      <c r="J296" s="20"/>
+      <c r="K296" s="21"/>
+    </row>
+    <row r="297" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H297" s="23"/>
+      <c r="I297" s="24"/>
+      <c r="J297" s="20"/>
+      <c r="K297" s="21"/>
+    </row>
+    <row r="298" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H298" s="23"/>
+      <c r="I298" s="24"/>
+      <c r="J298" s="20"/>
+      <c r="K298" s="21"/>
+    </row>
+    <row r="299" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H299" s="23"/>
+      <c r="I299" s="24"/>
+      <c r="J299" s="20"/>
+      <c r="K299" s="21"/>
+    </row>
+    <row r="300" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H300" s="23"/>
+      <c r="I300" s="24"/>
+      <c r="J300" s="20"/>
+      <c r="K300" s="21"/>
+    </row>
+    <row r="301" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H301" s="23"/>
+      <c r="I301" s="24"/>
+      <c r="J301" s="20"/>
+      <c r="K301" s="21"/>
+    </row>
+    <row r="302" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H302" s="23"/>
+      <c r="I302" s="24"/>
+      <c r="J302" s="20"/>
+      <c r="K302" s="21"/>
+    </row>
+    <row r="303" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H303" s="23"/>
+      <c r="I303" s="24"/>
+      <c r="J303" s="20"/>
+      <c r="K303" s="21"/>
+    </row>
+    <row r="304" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H304" s="23"/>
+      <c r="I304" s="24"/>
+      <c r="J304" s="20"/>
+      <c r="K304" s="21"/>
+    </row>
+    <row r="305" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H305" s="23"/>
+      <c r="I305" s="24"/>
+      <c r="J305" s="20"/>
+      <c r="K305" s="21"/>
+    </row>
+    <row r="306" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H306" s="23"/>
+      <c r="I306" s="24"/>
+      <c r="J306" s="20"/>
+      <c r="K306" s="21"/>
+    </row>
+    <row r="307" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H307" s="23"/>
+      <c r="I307" s="24"/>
+      <c r="J307" s="20"/>
+      <c r="K307" s="21"/>
+    </row>
+    <row r="308" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H308" s="23"/>
+      <c r="I308" s="24"/>
+      <c r="J308" s="20"/>
+      <c r="K308" s="21"/>
+    </row>
+    <row r="309" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H309" s="23"/>
+      <c r="I309" s="24"/>
+      <c r="J309" s="20"/>
+      <c r="K309" s="21"/>
+    </row>
+    <row r="310" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H310" s="23"/>
+      <c r="I310" s="24"/>
+      <c r="J310" s="20"/>
+      <c r="K310" s="21"/>
+    </row>
+    <row r="311" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H311" s="23"/>
+      <c r="I311" s="24"/>
+      <c r="J311" s="20"/>
+      <c r="K311" s="21"/>
+    </row>
+    <row r="312" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H312" s="23"/>
+      <c r="I312" s="24"/>
+      <c r="J312" s="20"/>
+      <c r="K312" s="21"/>
+    </row>
+    <row r="313" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H313" s="23"/>
+      <c r="I313" s="24"/>
+      <c r="J313" s="20"/>
+      <c r="K313" s="21"/>
+    </row>
+    <row r="314" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H314" s="23"/>
+      <c r="I314" s="24"/>
+      <c r="J314" s="20"/>
+      <c r="K314" s="21"/>
+    </row>
+    <row r="315" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H315" s="23"/>
+      <c r="I315" s="24"/>
+      <c r="J315" s="20"/>
+      <c r="K315" s="21"/>
+    </row>
+    <row r="316" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H316" s="23"/>
+      <c r="I316" s="24"/>
+      <c r="J316" s="20"/>
+      <c r="K316" s="21"/>
+    </row>
+    <row r="317" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H317" s="23"/>
+      <c r="I317" s="24"/>
+      <c r="J317" s="20"/>
+      <c r="K317" s="21"/>
+    </row>
+    <row r="318" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H318" s="23"/>
+      <c r="I318" s="24"/>
+      <c r="J318" s="20"/>
+      <c r="K318" s="21"/>
+    </row>
+    <row r="319" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H319" s="23"/>
+      <c r="I319" s="24"/>
+      <c r="J319" s="20"/>
+      <c r="K319" s="21"/>
+    </row>
+    <row r="320" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H320" s="23"/>
+      <c r="I320" s="24"/>
+      <c r="J320" s="20"/>
+      <c r="K320" s="21"/>
+    </row>
+    <row r="321" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H321" s="23"/>
+      <c r="I321" s="24"/>
+      <c r="J321" s="20"/>
+      <c r="K321" s="21"/>
+    </row>
+    <row r="322" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H322" s="23"/>
+      <c r="I322" s="24"/>
+      <c r="J322" s="20"/>
+      <c r="K322" s="21"/>
+    </row>
+    <row r="323" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H323" s="23"/>
+      <c r="I323" s="24"/>
+      <c r="J323" s="20"/>
+      <c r="K323" s="21"/>
+    </row>
+    <row r="324" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H324" s="23"/>
+      <c r="I324" s="24"/>
+      <c r="J324" s="20"/>
+      <c r="K324" s="21"/>
+    </row>
+    <row r="325" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H325" s="23"/>
+      <c r="I325" s="24"/>
+      <c r="J325" s="20"/>
+      <c r="K325" s="21"/>
+    </row>
+    <row r="326" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H326" s="23"/>
+      <c r="I326" s="24"/>
+      <c r="J326" s="20"/>
+      <c r="K326" s="21"/>
+    </row>
+    <row r="327" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H327" s="23"/>
+      <c r="I327" s="24"/>
+      <c r="J327" s="20"/>
+      <c r="K327" s="21"/>
+    </row>
+    <row r="328" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H328" s="23"/>
+      <c r="I328" s="24"/>
+      <c r="J328" s="20"/>
+      <c r="K328" s="21"/>
+    </row>
+    <row r="329" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H329" s="23"/>
+      <c r="I329" s="24"/>
+      <c r="J329" s="20"/>
+      <c r="K329" s="21"/>
+    </row>
+    <row r="330" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H330" s="23"/>
+      <c r="I330" s="24"/>
+      <c r="J330" s="20"/>
+      <c r="K330" s="21"/>
+    </row>
+    <row r="331" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H331" s="23"/>
+      <c r="I331" s="24"/>
+      <c r="J331" s="20"/>
+      <c r="K331" s="21"/>
+    </row>
+    <row r="332" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H332" s="23"/>
+      <c r="I332" s="24"/>
+      <c r="J332" s="20"/>
+      <c r="K332" s="21"/>
+    </row>
+    <row r="333" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H333" s="23"/>
+      <c r="I333" s="24"/>
+      <c r="J333" s="20"/>
+      <c r="K333" s="21"/>
+    </row>
+    <row r="334" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H334" s="23"/>
+      <c r="I334" s="24"/>
+      <c r="J334" s="20"/>
+      <c r="K334" s="21"/>
+    </row>
+    <row r="335" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H335" s="23"/>
+      <c r="I335" s="24"/>
+      <c r="J335" s="20"/>
+      <c r="K335" s="21"/>
+    </row>
+    <row r="336" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H336" s="23"/>
+      <c r="I336" s="24"/>
+      <c r="J336" s="20"/>
+      <c r="K336" s="21"/>
+    </row>
+    <row r="337" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H337" s="23"/>
+      <c r="I337" s="24"/>
+      <c r="J337" s="20"/>
+      <c r="K337" s="21"/>
+    </row>
+    <row r="338" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H338" s="23"/>
+      <c r="I338" s="24"/>
+      <c r="J338" s="20"/>
+      <c r="K338" s="21"/>
+    </row>
+    <row r="339" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H339" s="23"/>
+      <c r="I339" s="24"/>
+      <c r="J339" s="20"/>
+      <c r="K339" s="21"/>
+    </row>
+    <row r="340" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H340" s="23"/>
+      <c r="I340" s="24"/>
+      <c r="J340" s="20"/>
+      <c r="K340" s="21"/>
+    </row>
+    <row r="341" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H341" s="23"/>
+      <c r="I341" s="24"/>
+      <c r="J341" s="20"/>
+      <c r="K341" s="21"/>
+    </row>
+    <row r="342" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H342" s="23"/>
+      <c r="I342" s="24"/>
+      <c r="J342" s="20"/>
+      <c r="K342" s="21"/>
+    </row>
+    <row r="343" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H343" s="23"/>
+      <c r="I343" s="24"/>
+      <c r="J343" s="20"/>
+      <c r="K343" s="21"/>
+    </row>
+    <row r="344" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H344" s="23"/>
+      <c r="I344" s="24"/>
+      <c r="J344" s="20"/>
+      <c r="K344" s="21"/>
+    </row>
+    <row r="345" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H345" s="23"/>
+      <c r="I345" s="24"/>
+      <c r="J345" s="20"/>
+      <c r="K345" s="21"/>
+    </row>
+    <row r="346" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H346" s="23"/>
+      <c r="I346" s="24"/>
+      <c r="J346" s="20"/>
+      <c r="K346" s="21"/>
+    </row>
+    <row r="347" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H347" s="23"/>
+      <c r="I347" s="24"/>
+      <c r="J347" s="20"/>
+      <c r="K347" s="21"/>
+    </row>
+    <row r="348" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H348" s="23"/>
+      <c r="I348" s="24"/>
+      <c r="J348" s="20"/>
+      <c r="K348" s="21"/>
+    </row>
+    <row r="349" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H349" s="23"/>
+      <c r="I349" s="24"/>
+      <c r="J349" s="20"/>
+      <c r="K349" s="21"/>
+    </row>
+    <row r="350" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H350" s="23"/>
+      <c r="I350" s="24"/>
+      <c r="J350" s="20"/>
+      <c r="K350" s="21"/>
+    </row>
+    <row r="351" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H351" s="23"/>
+      <c r="I351" s="24"/>
+      <c r="J351" s="20"/>
+      <c r="K351" s="21"/>
+    </row>
+    <row r="352" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H352" s="23"/>
+      <c r="I352" s="24"/>
+      <c r="J352" s="20"/>
+      <c r="K352" s="21"/>
+    </row>
+    <row r="353" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H353" s="23"/>
+      <c r="I353" s="24"/>
+      <c r="J353" s="20"/>
+      <c r="K353" s="21"/>
+    </row>
+    <row r="354" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H354" s="23"/>
+      <c r="I354" s="24"/>
+      <c r="J354" s="20"/>
+      <c r="K354" s="21"/>
+    </row>
+    <row r="355" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H355" s="23"/>
+      <c r="I355" s="24"/>
+      <c r="J355" s="20"/>
+      <c r="K355" s="21"/>
+    </row>
+    <row r="356" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H356" s="23"/>
+      <c r="I356" s="24"/>
+      <c r="J356" s="20"/>
+      <c r="K356" s="21"/>
+    </row>
+    <row r="357" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H357" s="23"/>
+      <c r="I357" s="24"/>
+      <c r="J357" s="20"/>
+      <c r="K357" s="21"/>
+    </row>
+    <row r="358" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H358" s="23"/>
+      <c r="I358" s="24"/>
+      <c r="J358" s="20"/>
+      <c r="K358" s="21"/>
+    </row>
+    <row r="359" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H359" s="23"/>
+      <c r="I359" s="24"/>
+      <c r="J359" s="20"/>
+      <c r="K359" s="21"/>
+    </row>
+    <row r="360" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H360" s="23"/>
+      <c r="I360" s="24"/>
+      <c r="J360" s="20"/>
+      <c r="K360" s="21"/>
+    </row>
+    <row r="361" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H361" s="23"/>
+      <c r="I361" s="24"/>
+      <c r="J361" s="20"/>
+      <c r="K361" s="21"/>
+    </row>
+    <row r="362" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H362" s="23"/>
+      <c r="I362" s="24"/>
+      <c r="J362" s="20"/>
+      <c r="K362" s="21"/>
+    </row>
+    <row r="363" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H363" s="23"/>
+      <c r="I363" s="24"/>
+      <c r="J363" s="20"/>
+      <c r="K363" s="21"/>
+    </row>
+    <row r="364" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H364" s="23"/>
+      <c r="I364" s="24"/>
+      <c r="J364" s="20"/>
+      <c r="K364" s="21"/>
+    </row>
+    <row r="365" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H365" s="23"/>
+      <c r="I365" s="24"/>
+      <c r="J365" s="20"/>
+      <c r="K365" s="21"/>
+    </row>
+    <row r="366" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H366" s="23"/>
+      <c r="I366" s="24"/>
+      <c r="J366" s="20"/>
+      <c r="K366" s="21"/>
+    </row>
+    <row r="367" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H367" s="23"/>
+      <c r="I367" s="24"/>
+      <c r="J367" s="20"/>
+      <c r="K367" s="21"/>
+    </row>
+    <row r="368" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H368" s="23"/>
+      <c r="I368" s="24"/>
+      <c r="J368" s="20"/>
+      <c r="K368" s="21"/>
+    </row>
+    <row r="369" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H369" s="23"/>
+      <c r="I369" s="24"/>
+      <c r="J369" s="20"/>
+      <c r="K369" s="21"/>
+    </row>
+    <row r="370" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H370" s="23"/>
+      <c r="I370" s="24"/>
+      <c r="J370" s="20"/>
+      <c r="K370" s="21"/>
+    </row>
+    <row r="371" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H371" s="23"/>
+      <c r="I371" s="24"/>
+      <c r="J371" s="20"/>
+      <c r="K371" s="21"/>
+    </row>
+    <row r="372" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H372" s="23"/>
+      <c r="I372" s="24"/>
+      <c r="J372" s="20"/>
+      <c r="K372" s="21"/>
+    </row>
+    <row r="373" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H373" s="23"/>
+      <c r="I373" s="24"/>
+      <c r="J373" s="20"/>
+      <c r="K373" s="21"/>
+    </row>
+    <row r="374" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H374" s="23"/>
+      <c r="I374" s="24"/>
+      <c r="J374" s="20"/>
+      <c r="K374" s="21"/>
+    </row>
+    <row r="375" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H375" s="23"/>
+      <c r="I375" s="24"/>
+      <c r="J375" s="20"/>
+      <c r="K375" s="21"/>
+    </row>
+    <row r="376" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H376" s="23"/>
+      <c r="I376" s="24"/>
+      <c r="J376" s="20"/>
+      <c r="K376" s="21"/>
+    </row>
+    <row r="377" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H377" s="23"/>
+      <c r="I377" s="24"/>
+      <c r="J377" s="20"/>
+      <c r="K377" s="21"/>
+    </row>
+    <row r="378" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H378" s="23"/>
+      <c r="I378" s="24"/>
+      <c r="J378" s="20"/>
+      <c r="K378" s="21"/>
+    </row>
+    <row r="379" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H379" s="23"/>
+      <c r="I379" s="24"/>
+      <c r="J379" s="20"/>
+      <c r="K379" s="21"/>
+    </row>
+    <row r="380" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H380" s="23"/>
+      <c r="I380" s="24"/>
+      <c r="J380" s="20"/>
+      <c r="K380" s="21"/>
+    </row>
+    <row r="381" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H381" s="23"/>
+      <c r="I381" s="24"/>
+      <c r="J381" s="20"/>
+      <c r="K381" s="21"/>
+    </row>
+    <row r="382" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H382" s="23"/>
+      <c r="I382" s="24"/>
+      <c r="J382" s="20"/>
+      <c r="K382" s="21"/>
+    </row>
+    <row r="383" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H383" s="23"/>
+      <c r="I383" s="24"/>
+      <c r="J383" s="20"/>
+      <c r="K383" s="21"/>
+    </row>
+    <row r="384" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H384" s="23"/>
+      <c r="I384" s="24"/>
+      <c r="J384" s="20"/>
+      <c r="K384" s="21"/>
+    </row>
+    <row r="385" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H385" s="23"/>
+      <c r="I385" s="24"/>
+      <c r="J385" s="20"/>
+      <c r="K385" s="21"/>
+    </row>
+    <row r="386" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H386" s="23"/>
+      <c r="I386" s="24"/>
+      <c r="J386" s="20"/>
+      <c r="K386" s="21"/>
+    </row>
+    <row r="387" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H387" s="23"/>
+      <c r="I387" s="24"/>
+      <c r="J387" s="20"/>
+      <c r="K387" s="21"/>
+    </row>
+    <row r="388" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H388" s="23"/>
+      <c r="I388" s="24"/>
+      <c r="J388" s="20"/>
+      <c r="K388" s="21"/>
+    </row>
+    <row r="389" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H389" s="23"/>
+      <c r="I389" s="24"/>
+      <c r="J389" s="20"/>
+      <c r="K389" s="21"/>
+    </row>
+    <row r="390" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H390" s="23"/>
+      <c r="I390" s="24"/>
+      <c r="J390" s="20"/>
+      <c r="K390" s="21"/>
+    </row>
+    <row r="391" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H391" s="23"/>
+      <c r="I391" s="24"/>
+      <c r="J391" s="20"/>
+      <c r="K391" s="21"/>
+    </row>
+    <row r="392" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H392" s="23"/>
+      <c r="I392" s="24"/>
+      <c r="J392" s="20"/>
+      <c r="K392" s="21"/>
+    </row>
+    <row r="393" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H393" s="23"/>
+      <c r="I393" s="24"/>
+      <c r="J393" s="20"/>
+      <c r="K393" s="21"/>
+    </row>
+    <row r="394" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H394" s="23"/>
+      <c r="I394" s="24"/>
+      <c r="J394" s="20"/>
+      <c r="K394" s="21"/>
+    </row>
+    <row r="395" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H395" s="23"/>
+      <c r="I395" s="24"/>
+      <c r="J395" s="20"/>
+      <c r="K395" s="21"/>
+    </row>
+    <row r="396" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H396" s="23"/>
+      <c r="I396" s="24"/>
+      <c r="J396" s="20"/>
+      <c r="K396" s="21"/>
+    </row>
+    <row r="397" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H397" s="23"/>
+      <c r="I397" s="24"/>
+      <c r="J397" s="20"/>
+      <c r="K397" s="21"/>
+    </row>
+    <row r="398" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H398" s="23"/>
+      <c r="I398" s="24"/>
+      <c r="J398" s="20"/>
+      <c r="K398" s="21"/>
+    </row>
+    <row r="399" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H399" s="23"/>
+      <c r="I399" s="24"/>
+      <c r="J399" s="20"/>
+      <c r="K399" s="21"/>
+    </row>
+    <row r="400" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H400" s="23"/>
+      <c r="I400" s="24"/>
+      <c r="J400" s="20"/>
+      <c r="K400" s="21"/>
+    </row>
+    <row r="401" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H401" s="23"/>
+      <c r="I401" s="24"/>
+      <c r="J401" s="20"/>
+      <c r="K401" s="21"/>
+    </row>
+    <row r="402" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H402" s="23"/>
+      <c r="I402" s="24"/>
+      <c r="J402" s="20"/>
+      <c r="K402" s="21"/>
+    </row>
+    <row r="403" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H403" s="23"/>
+      <c r="I403" s="24"/>
+      <c r="J403" s="20"/>
+      <c r="K403" s="21"/>
+    </row>
+    <row r="404" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H404" s="23"/>
+      <c r="I404" s="24"/>
+      <c r="J404" s="20"/>
+      <c r="K404" s="21"/>
+    </row>
+    <row r="405" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H405" s="23"/>
+      <c r="I405" s="24"/>
+      <c r="J405" s="20"/>
+      <c r="K405" s="21"/>
+    </row>
+    <row r="406" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H406" s="23"/>
+      <c r="I406" s="24"/>
+      <c r="J406" s="20"/>
+      <c r="K406" s="21"/>
+    </row>
+    <row r="407" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H407" s="23"/>
+      <c r="I407" s="24"/>
+      <c r="J407" s="20"/>
+      <c r="K407" s="21"/>
+    </row>
+    <row r="408" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H408" s="23"/>
+      <c r="I408" s="24"/>
+      <c r="J408" s="20"/>
+      <c r="K408" s="21"/>
+    </row>
+    <row r="409" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H409" s="23"/>
+      <c r="I409" s="24"/>
+      <c r="J409" s="20"/>
+      <c r="K409" s="21"/>
+    </row>
+    <row r="410" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H410" s="23"/>
+      <c r="I410" s="24"/>
+      <c r="J410" s="20"/>
+      <c r="K410" s="21"/>
+    </row>
+    <row r="411" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H411" s="23"/>
+      <c r="I411" s="24"/>
+      <c r="J411" s="20"/>
+      <c r="K411" s="21"/>
+    </row>
+    <row r="412" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H412" s="23"/>
+      <c r="I412" s="24"/>
+      <c r="J412" s="20"/>
+      <c r="K412" s="21"/>
+    </row>
+    <row r="413" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H413" s="23"/>
+      <c r="I413" s="24"/>
+      <c r="J413" s="20"/>
+      <c r="K413" s="21"/>
+    </row>
+    <row r="414" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H414" s="23"/>
+      <c r="I414" s="24"/>
+      <c r="J414" s="20"/>
+      <c r="K414" s="21"/>
+    </row>
+    <row r="415" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H415" s="23"/>
+      <c r="I415" s="24"/>
+      <c r="J415" s="20"/>
+      <c r="K415" s="21"/>
+    </row>
+    <row r="416" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H416" s="23"/>
+      <c r="I416" s="24"/>
+      <c r="J416" s="20"/>
+      <c r="K416" s="21"/>
+    </row>
+    <row r="417" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H417" s="23"/>
+      <c r="I417" s="24"/>
+      <c r="J417" s="20"/>
+      <c r="K417" s="21"/>
+    </row>
+    <row r="418" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H418" s="23"/>
+      <c r="I418" s="24"/>
+      <c r="J418" s="20"/>
+      <c r="K418" s="21"/>
+    </row>
+    <row r="419" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H419" s="23"/>
+      <c r="I419" s="24"/>
+      <c r="J419" s="20"/>
+      <c r="K419" s="21"/>
+    </row>
+    <row r="420" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H420" s="23"/>
+      <c r="I420" s="24"/>
+      <c r="J420" s="20"/>
+      <c r="K420" s="21"/>
+    </row>
+    <row r="421" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H421" s="23"/>
+      <c r="I421" s="24"/>
+      <c r="J421" s="20"/>
+      <c r="K421" s="21"/>
+    </row>
+    <row r="422" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H422" s="23"/>
+      <c r="I422" s="24"/>
+      <c r="J422" s="20"/>
+      <c r="K422" s="21"/>
+    </row>
+    <row r="423" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H423" s="23"/>
+      <c r="I423" s="24"/>
+      <c r="J423" s="20"/>
+      <c r="K423" s="21"/>
+    </row>
+    <row r="424" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H424" s="23"/>
+      <c r="I424" s="24"/>
+      <c r="J424" s="20"/>
+      <c r="K424" s="21"/>
+    </row>
+    <row r="425" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H425" s="23"/>
+      <c r="I425" s="24"/>
+      <c r="J425" s="20"/>
+      <c r="K425" s="21"/>
+    </row>
+    <row r="426" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H426" s="23"/>
+      <c r="I426" s="24"/>
+      <c r="J426" s="20"/>
+      <c r="K426" s="21"/>
+    </row>
+    <row r="427" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H427" s="23"/>
+      <c r="I427" s="24"/>
+      <c r="J427" s="20"/>
+      <c r="K427" s="21"/>
+    </row>
+    <row r="428" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H428" s="23"/>
+      <c r="I428" s="24"/>
+      <c r="J428" s="20"/>
+      <c r="K428" s="21"/>
+    </row>
+    <row r="429" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H429" s="23"/>
+      <c r="I429" s="24"/>
+      <c r="J429" s="20"/>
+      <c r="K429" s="21"/>
+    </row>
+    <row r="430" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H430" s="23"/>
+      <c r="I430" s="24"/>
+      <c r="J430" s="20"/>
+      <c r="K430" s="21"/>
+    </row>
+    <row r="431" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H431" s="23"/>
+      <c r="I431" s="24"/>
+      <c r="J431" s="20"/>
+      <c r="K431" s="21"/>
+    </row>
+    <row r="432" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H432" s="23"/>
+      <c r="I432" s="24"/>
+      <c r="J432" s="20"/>
+      <c r="K432" s="21"/>
+    </row>
+    <row r="433" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H433" s="23"/>
+      <c r="I433" s="24"/>
+      <c r="J433" s="20"/>
+      <c r="K433" s="21"/>
+    </row>
+    <row r="434" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H434" s="23"/>
+      <c r="I434" s="24"/>
+      <c r="J434" s="20"/>
+      <c r="K434" s="21"/>
+    </row>
+    <row r="435" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H435" s="23"/>
+      <c r="I435" s="24"/>
+      <c r="J435" s="20"/>
+      <c r="K435" s="21"/>
+    </row>
+    <row r="436" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H436" s="23"/>
+      <c r="I436" s="24"/>
+      <c r="J436" s="20"/>
+      <c r="K436" s="21"/>
+    </row>
+    <row r="437" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H437" s="23"/>
+      <c r="I437" s="24"/>
+      <c r="J437" s="20"/>
+      <c r="K437" s="21"/>
+    </row>
+    <row r="438" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H438" s="23"/>
+      <c r="I438" s="24"/>
+      <c r="J438" s="20"/>
+      <c r="K438" s="21"/>
+    </row>
+    <row r="439" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H439" s="23"/>
+      <c r="I439" s="24"/>
+      <c r="J439" s="20"/>
+      <c r="K439" s="21"/>
+    </row>
+    <row r="440" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H440" s="23"/>
+      <c r="I440" s="24"/>
+      <c r="J440" s="20"/>
+      <c r="K440" s="21"/>
+    </row>
+    <row r="441" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H441" s="23"/>
+      <c r="I441" s="24"/>
+      <c r="J441" s="20"/>
+      <c r="K441" s="21"/>
+    </row>
+    <row r="442" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H442" s="23"/>
+      <c r="I442" s="24"/>
+      <c r="J442" s="20"/>
+      <c r="K442" s="21"/>
+    </row>
+    <row r="443" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H443" s="23"/>
+      <c r="I443" s="24"/>
+      <c r="J443" s="20"/>
+      <c r="K443" s="21"/>
+    </row>
+    <row r="444" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H444" s="23"/>
+      <c r="I444" s="24"/>
+      <c r="J444" s="20"/>
+      <c r="K444" s="21"/>
+    </row>
+    <row r="445" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H445" s="23"/>
+      <c r="I445" s="24"/>
+      <c r="J445" s="20"/>
+      <c r="K445" s="21"/>
+    </row>
+    <row r="446" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H446" s="23"/>
+      <c r="I446" s="24"/>
+      <c r="J446" s="20"/>
+      <c r="K446" s="21"/>
+    </row>
+    <row r="447" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H447" s="23"/>
+      <c r="I447" s="24"/>
+      <c r="J447" s="20"/>
+      <c r="K447" s="21"/>
+    </row>
+    <row r="448" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H448" s="23"/>
+      <c r="I448" s="24"/>
+      <c r="J448" s="20"/>
+      <c r="K448" s="21"/>
+    </row>
+    <row r="449" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H449" s="23"/>
+      <c r="I449" s="24"/>
+      <c r="J449" s="20"/>
+      <c r="K449" s="21"/>
+    </row>
+    <row r="450" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H450" s="23"/>
+      <c r="I450" s="24"/>
+      <c r="J450" s="20"/>
+      <c r="K450" s="21"/>
+    </row>
+    <row r="451" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H451" s="23"/>
+      <c r="I451" s="24"/>
+      <c r="J451" s="20"/>
+      <c r="K451" s="21"/>
+    </row>
+    <row r="452" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H452" s="23"/>
+      <c r="I452" s="24"/>
+      <c r="J452" s="20"/>
+      <c r="K452" s="21"/>
+    </row>
+    <row r="453" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H453" s="23"/>
+      <c r="I453" s="24"/>
+      <c r="J453" s="20"/>
+      <c r="K453" s="21"/>
+    </row>
+    <row r="454" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H454" s="23"/>
+      <c r="I454" s="24"/>
+      <c r="J454" s="20"/>
+      <c r="K454" s="21"/>
+    </row>
+    <row r="455" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H455" s="23"/>
+      <c r="I455" s="24"/>
+      <c r="J455" s="20"/>
+      <c r="K455" s="21"/>
+    </row>
+    <row r="456" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H456" s="23"/>
+      <c r="I456" s="24"/>
+      <c r="J456" s="20"/>
+      <c r="K456" s="21"/>
+    </row>
+    <row r="457" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H457" s="23"/>
+      <c r="I457" s="24"/>
+      <c r="J457" s="20"/>
+      <c r="K457" s="21"/>
+    </row>
+    <row r="458" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H458" s="23"/>
+      <c r="I458" s="24"/>
+      <c r="J458" s="20"/>
+      <c r="K458" s="21"/>
+    </row>
+    <row r="459" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H459" s="23"/>
+      <c r="I459" s="24"/>
+      <c r="J459" s="20"/>
+      <c r="K459" s="21"/>
+    </row>
+    <row r="460" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H460" s="23"/>
+      <c r="I460" s="24"/>
+      <c r="J460" s="20"/>
+      <c r="K460" s="21"/>
+    </row>
+    <row r="461" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H461" s="23"/>
+      <c r="I461" s="24"/>
+      <c r="J461" s="20"/>
+      <c r="K461" s="21"/>
+    </row>
+    <row r="462" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H462" s="23"/>
+      <c r="I462" s="24"/>
+      <c r="J462" s="20"/>
+      <c r="K462" s="21"/>
+    </row>
+    <row r="463" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H463" s="23"/>
+      <c r="I463" s="24"/>
+      <c r="J463" s="20"/>
+      <c r="K463" s="21"/>
+    </row>
+    <row r="464" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H464" s="23"/>
+      <c r="I464" s="24"/>
+      <c r="J464" s="20"/>
+      <c r="K464" s="21"/>
+    </row>
+    <row r="465" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H465" s="23"/>
+      <c r="I465" s="24"/>
+      <c r="J465" s="20"/>
+      <c r="K465" s="21"/>
+    </row>
+    <row r="466" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H466" s="23"/>
+      <c r="I466" s="24"/>
+      <c r="J466" s="20"/>
+      <c r="K466" s="21"/>
+    </row>
+    <row r="467" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H467" s="23"/>
+      <c r="I467" s="24"/>
+      <c r="J467" s="20"/>
+      <c r="K467" s="21"/>
+    </row>
+    <row r="468" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H468" s="23"/>
+      <c r="I468" s="24"/>
+      <c r="J468" s="20"/>
+      <c r="K468" s="21"/>
+    </row>
+    <row r="469" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H469" s="23"/>
+      <c r="I469" s="24"/>
+      <c r="J469" s="20"/>
+      <c r="K469" s="21"/>
+    </row>
+    <row r="470" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H470" s="23"/>
+      <c r="I470" s="24"/>
+      <c r="J470" s="20"/>
+      <c r="K470" s="21"/>
+    </row>
+    <row r="471" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H471" s="23"/>
+      <c r="I471" s="24"/>
+      <c r="J471" s="20"/>
+      <c r="K471" s="21"/>
+    </row>
+    <row r="472" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H472" s="23"/>
+      <c r="I472" s="24"/>
+      <c r="J472" s="20"/>
+      <c r="K472" s="21"/>
+    </row>
+    <row r="473" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H473" s="23"/>
+      <c r="I473" s="24"/>
+      <c r="J473" s="20"/>
+      <c r="K473" s="21"/>
+    </row>
+    <row r="474" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H474" s="23"/>
+      <c r="I474" s="24"/>
+      <c r="J474" s="20"/>
+      <c r="K474" s="21"/>
+    </row>
+    <row r="475" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H475" s="23"/>
+      <c r="I475" s="24"/>
+      <c r="J475" s="20"/>
+      <c r="K475" s="21"/>
+    </row>
+    <row r="476" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H476" s="23"/>
+      <c r="I476" s="24"/>
+      <c r="J476" s="20"/>
+      <c r="K476" s="21"/>
+    </row>
+    <row r="477" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H477" s="23"/>
+      <c r="I477" s="24"/>
+      <c r="J477" s="20"/>
+      <c r="K477" s="21"/>
+    </row>
+    <row r="478" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H478" s="23"/>
+      <c r="I478" s="24"/>
+      <c r="J478" s="20"/>
+      <c r="K478" s="21"/>
+    </row>
+    <row r="479" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H479" s="23"/>
+      <c r="I479" s="24"/>
+      <c r="J479" s="20"/>
+      <c r="K479" s="21"/>
+    </row>
+    <row r="480" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H480" s="23"/>
+      <c r="I480" s="24"/>
+      <c r="J480" s="20"/>
+      <c r="K480" s="21"/>
+    </row>
+    <row r="481" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H481" s="23"/>
+      <c r="I481" s="24"/>
+      <c r="J481" s="20"/>
+      <c r="K481" s="21"/>
+    </row>
+    <row r="482" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H482" s="23"/>
+      <c r="I482" s="24"/>
+      <c r="J482" s="20"/>
+      <c r="K482" s="21"/>
+    </row>
+    <row r="483" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H483" s="23"/>
+      <c r="I483" s="24"/>
+      <c r="J483" s="20"/>
+      <c r="K483" s="21"/>
+    </row>
+    <row r="484" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H484" s="23"/>
+      <c r="I484" s="24"/>
+      <c r="J484" s="20"/>
+      <c r="K484" s="21"/>
+    </row>
+    <row r="485" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H485" s="23"/>
+      <c r="I485" s="24"/>
+      <c r="J485" s="20"/>
+      <c r="K485" s="21"/>
+    </row>
+    <row r="486" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H486" s="23"/>
+      <c r="I486" s="24"/>
+      <c r="J486" s="20"/>
+      <c r="K486" s="21"/>
+    </row>
+    <row r="487" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H487" s="23"/>
+      <c r="I487" s="24"/>
+      <c r="J487" s="20"/>
+      <c r="K487" s="21"/>
+    </row>
+    <row r="488" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H488" s="23"/>
+      <c r="I488" s="24"/>
+      <c r="J488" s="20"/>
+      <c r="K488" s="21"/>
+    </row>
+    <row r="489" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H489" s="23"/>
+      <c r="I489" s="24"/>
+      <c r="J489" s="20"/>
+      <c r="K489" s="21"/>
+    </row>
+    <row r="490" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H490" s="23"/>
+      <c r="I490" s="24"/>
+      <c r="J490" s="20"/>
+      <c r="K490" s="21"/>
+    </row>
+    <row r="491" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H491" s="23"/>
+      <c r="I491" s="24"/>
+      <c r="J491" s="20"/>
+      <c r="K491" s="21"/>
+    </row>
+    <row r="492" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H492" s="23"/>
+      <c r="I492" s="24"/>
+      <c r="J492" s="20"/>
+      <c r="K492" s="21"/>
+    </row>
+    <row r="493" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H493" s="23"/>
+      <c r="I493" s="24"/>
+      <c r="J493" s="20"/>
+      <c r="K493" s="21"/>
+    </row>
+    <row r="494" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H494" s="23"/>
+      <c r="I494" s="24"/>
+      <c r="J494" s="20"/>
+      <c r="K494" s="21"/>
+    </row>
+    <row r="495" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H495" s="23"/>
+      <c r="I495" s="24"/>
+      <c r="J495" s="20"/>
+      <c r="K495" s="21"/>
+    </row>
+    <row r="496" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H496" s="23"/>
+      <c r="I496" s="24"/>
+      <c r="J496" s="20"/>
+      <c r="K496" s="21"/>
+    </row>
+    <row r="497" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H497" s="23"/>
+      <c r="I497" s="24"/>
+      <c r="J497" s="20"/>
+      <c r="K497" s="21"/>
+    </row>
+    <row r="498" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H498" s="23"/>
+      <c r="I498" s="24"/>
+      <c r="J498" s="20"/>
+      <c r="K498" s="21"/>
+    </row>
+    <row r="499" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H499" s="23"/>
+      <c r="I499" s="24"/>
+      <c r="J499" s="20"/>
+      <c r="K499" s="21"/>
+    </row>
+    <row r="500" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H500" s="23"/>
+      <c r="I500" s="24"/>
+      <c r="J500" s="20"/>
+      <c r="K500" s="21"/>
+    </row>
+    <row r="501" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H501" s="23"/>
+      <c r="I501" s="24"/>
+      <c r="J501" s="20"/>
+      <c r="K501" s="21"/>
+    </row>
+    <row r="502" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H502" s="23"/>
+      <c r="I502" s="24"/>
+      <c r="J502" s="20"/>
+      <c r="K502" s="21"/>
+    </row>
+    <row r="503" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H503" s="23"/>
+      <c r="I503" s="24"/>
+      <c r="J503" s="20"/>
+      <c r="K503" s="21"/>
+    </row>
+    <row r="504" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H504" s="23"/>
+      <c r="I504" s="24"/>
+      <c r="J504" s="20"/>
+      <c r="K504" s="21"/>
+    </row>
+    <row r="505" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H505" s="23"/>
+      <c r="I505" s="24"/>
+      <c r="J505" s="20"/>
+      <c r="K505" s="21"/>
+    </row>
+    <row r="506" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H506" s="23"/>
+      <c r="I506" s="24"/>
+      <c r="J506" s="20"/>
+      <c r="K506" s="21"/>
+    </row>
+    <row r="507" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H507" s="23"/>
+      <c r="I507" s="24"/>
+      <c r="J507" s="20"/>
+      <c r="K507" s="21"/>
+    </row>
+    <row r="508" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H508" s="23"/>
+      <c r="I508" s="24"/>
+      <c r="J508" s="20"/>
+      <c r="K508" s="21"/>
+    </row>
+    <row r="509" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H509" s="23"/>
+      <c r="I509" s="24"/>
+      <c r="J509" s="20"/>
+      <c r="K509" s="21"/>
+    </row>
+    <row r="510" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H510" s="23"/>
+      <c r="I510" s="24"/>
+      <c r="J510" s="20"/>
+      <c r="K510" s="21"/>
+    </row>
+    <row r="511" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H511" s="23"/>
+      <c r="I511" s="24"/>
+      <c r="J511" s="20"/>
+      <c r="K511" s="21"/>
+    </row>
+    <row r="512" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H512" s="23"/>
+      <c r="I512" s="24"/>
+      <c r="J512" s="20"/>
+      <c r="K512" s="21"/>
+    </row>
+    <row r="513" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H513" s="23"/>
+      <c r="I513" s="24"/>
+      <c r="J513" s="20"/>
+      <c r="K513" s="21"/>
+    </row>
+    <row r="514" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H514" s="23"/>
+      <c r="I514" s="24"/>
+      <c r="J514" s="20"/>
+      <c r="K514" s="21"/>
+    </row>
+    <row r="515" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H515" s="23"/>
+      <c r="I515" s="24"/>
+      <c r="J515" s="20"/>
+      <c r="K515" s="21"/>
+    </row>
+    <row r="516" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H516" s="23"/>
+      <c r="I516" s="24"/>
+      <c r="J516" s="20"/>
+      <c r="K516" s="21"/>
+    </row>
+    <row r="517" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H517" s="23"/>
+      <c r="I517" s="24"/>
+      <c r="J517" s="20"/>
+      <c r="K517" s="21"/>
+    </row>
+    <row r="518" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H518" s="23"/>
+      <c r="I518" s="24"/>
+      <c r="J518" s="20"/>
+      <c r="K518" s="21"/>
+    </row>
+    <row r="519" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H519" s="23"/>
+      <c r="I519" s="24"/>
+      <c r="J519" s="20"/>
+      <c r="K519" s="21"/>
+    </row>
+    <row r="520" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H520" s="23"/>
+      <c r="I520" s="24"/>
+      <c r="J520" s="20"/>
+      <c r="K520" s="21"/>
+    </row>
+    <row r="521" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H521" s="23"/>
+      <c r="I521" s="24"/>
+      <c r="J521" s="20"/>
+      <c r="K521" s="21"/>
+    </row>
+    <row r="522" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H522" s="23"/>
+      <c r="I522" s="24"/>
+      <c r="J522" s="20"/>
+      <c r="K522" s="21"/>
+    </row>
+    <row r="523" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H523" s="23"/>
+      <c r="I523" s="24"/>
+      <c r="J523" s="20"/>
+      <c r="K523" s="21"/>
+    </row>
+    <row r="524" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H524" s="23"/>
+      <c r="I524" s="24"/>
+      <c r="J524" s="20"/>
+      <c r="K524" s="21"/>
+    </row>
+    <row r="525" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H525" s="23"/>
+      <c r="I525" s="24"/>
+      <c r="J525" s="20"/>
+      <c r="K525" s="21"/>
+    </row>
+    <row r="526" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H526" s="23"/>
+      <c r="I526" s="24"/>
+      <c r="J526" s="20"/>
+      <c r="K526" s="21"/>
+    </row>
+    <row r="527" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H527" s="23"/>
+      <c r="I527" s="24"/>
+      <c r="J527" s="20"/>
+      <c r="K527" s="21"/>
+    </row>
+    <row r="528" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H528" s="23"/>
+      <c r="I528" s="24"/>
+      <c r="J528" s="20"/>
+      <c r="K528" s="21"/>
+    </row>
+    <row r="529" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H529" s="23"/>
+      <c r="I529" s="24"/>
+      <c r="J529" s="20"/>
+      <c r="K529" s="21"/>
+    </row>
+    <row r="530" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H530" s="23"/>
+      <c r="I530" s="24"/>
+      <c r="J530" s="20"/>
+      <c r="K530" s="21"/>
+    </row>
+    <row r="531" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H531" s="23"/>
+      <c r="I531" s="24"/>
+      <c r="J531" s="20"/>
+      <c r="K531" s="21"/>
+    </row>
+    <row r="532" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H532" s="23"/>
+      <c r="I532" s="24"/>
+      <c r="J532" s="20"/>
+      <c r="K532" s="21"/>
+    </row>
+    <row r="533" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H533" s="23"/>
+      <c r="I533" s="24"/>
+      <c r="J533" s="20"/>
+      <c r="K533" s="21"/>
+    </row>
+    <row r="534" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H534" s="23"/>
+      <c r="I534" s="24"/>
+      <c r="J534" s="20"/>
+      <c r="K534" s="21"/>
+    </row>
+    <row r="535" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H535" s="23"/>
+      <c r="I535" s="24"/>
+      <c r="J535" s="20"/>
+      <c r="K535" s="21"/>
+    </row>
+    <row r="536" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H536" s="23"/>
+      <c r="I536" s="24"/>
+      <c r="J536" s="20"/>
+      <c r="K536" s="21"/>
+    </row>
+    <row r="537" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H537" s="23"/>
+      <c r="I537" s="24"/>
+      <c r="J537" s="20"/>
+      <c r="K537" s="21"/>
+    </row>
+    <row r="538" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H538" s="23"/>
+      <c r="I538" s="24"/>
+      <c r="J538" s="20"/>
+      <c r="K538" s="21"/>
+    </row>
+    <row r="539" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H539" s="23"/>
+      <c r="I539" s="24"/>
+      <c r="J539" s="20"/>
+      <c r="K539" s="21"/>
+    </row>
+    <row r="540" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H540" s="23"/>
+      <c r="I540" s="24"/>
+      <c r="J540" s="20"/>
+      <c r="K540" s="21"/>
+    </row>
+    <row r="541" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H541" s="23"/>
+      <c r="I541" s="24"/>
+      <c r="J541" s="20"/>
+      <c r="K541" s="21"/>
+    </row>
+    <row r="542" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H542" s="23"/>
+      <c r="I542" s="24"/>
+      <c r="J542" s="20"/>
+      <c r="K542" s="21"/>
+    </row>
+    <row r="543" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H543" s="23"/>
+      <c r="I543" s="24"/>
+      <c r="J543" s="20"/>
+      <c r="K543" s="21"/>
+    </row>
+    <row r="544" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H544" s="23"/>
+      <c r="I544" s="24"/>
+      <c r="J544" s="20"/>
+      <c r="K544" s="21"/>
+    </row>
+    <row r="545" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H545" s="23"/>
+      <c r="I545" s="24"/>
+      <c r="J545" s="20"/>
+      <c r="K545" s="21"/>
+    </row>
+    <row r="546" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H546" s="23"/>
+      <c r="I546" s="24"/>
+      <c r="J546" s="20"/>
+      <c r="K546" s="21"/>
+    </row>
+    <row r="547" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H547" s="23"/>
+      <c r="I547" s="24"/>
+      <c r="J547" s="20"/>
+      <c r="K547" s="21"/>
+    </row>
+    <row r="548" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H548" s="23"/>
+      <c r="I548" s="24"/>
+      <c r="J548" s="20"/>
+      <c r="K548" s="21"/>
+    </row>
+    <row r="549" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H549" s="23"/>
+      <c r="I549" s="24"/>
+      <c r="J549" s="20"/>
+      <c r="K549" s="21"/>
+    </row>
+    <row r="550" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H550" s="23"/>
+      <c r="I550" s="24"/>
+      <c r="J550" s="20"/>
+      <c r="K550" s="21"/>
+    </row>
+    <row r="551" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H551" s="23"/>
+      <c r="I551" s="24"/>
+      <c r="J551" s="20"/>
+      <c r="K551" s="21"/>
+    </row>
+    <row r="552" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H552" s="23"/>
+      <c r="I552" s="24"/>
+      <c r="J552" s="20"/>
+      <c r="K552" s="21"/>
+    </row>
+    <row r="553" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H553" s="23"/>
+      <c r="I553" s="24"/>
+      <c r="J553" s="20"/>
+      <c r="K553" s="21"/>
+    </row>
+    <row r="554" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H554" s="23"/>
+      <c r="I554" s="24"/>
+      <c r="J554" s="20"/>
+      <c r="K554" s="21"/>
+    </row>
+    <row r="555" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H555" s="23"/>
+      <c r="I555" s="24"/>
+      <c r="J555" s="20"/>
+      <c r="K555" s="21"/>
+    </row>
+    <row r="556" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H556" s="23"/>
+      <c r="I556" s="24"/>
+      <c r="J556" s="20"/>
+      <c r="K556" s="21"/>
+    </row>
+    <row r="557" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H557" s="23"/>
+      <c r="I557" s="24"/>
+      <c r="J557" s="20"/>
+      <c r="K557" s="21"/>
+    </row>
+    <row r="558" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H558" s="23"/>
+      <c r="I558" s="24"/>
+      <c r="J558" s="20"/>
+      <c r="K558" s="21"/>
+    </row>
+    <row r="559" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H559" s="23"/>
+      <c r="I559" s="24"/>
+      <c r="J559" s="20"/>
+      <c r="K559" s="21"/>
+    </row>
+    <row r="560" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H560" s="23"/>
+      <c r="I560" s="24"/>
+      <c r="J560" s="20"/>
+      <c r="K560" s="21"/>
+    </row>
+    <row r="561" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H561" s="23"/>
+      <c r="I561" s="24"/>
+      <c r="J561" s="20"/>
+      <c r="K561" s="21"/>
+    </row>
+    <row r="562" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H562" s="23"/>
+      <c r="I562" s="24"/>
+      <c r="J562" s="20"/>
+      <c r="K562" s="21"/>
+    </row>
+    <row r="563" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H563" s="23"/>
+      <c r="I563" s="24"/>
+      <c r="J563" s="20"/>
+      <c r="K563" s="21"/>
+    </row>
+    <row r="564" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H564" s="23"/>
+      <c r="I564" s="24"/>
+      <c r="J564" s="20"/>
+      <c r="K564" s="21"/>
+    </row>
+    <row r="565" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H565" s="23"/>
+      <c r="I565" s="24"/>
+      <c r="J565" s="20"/>
+      <c r="K565" s="21"/>
+    </row>
+    <row r="566" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H566" s="23"/>
+      <c r="I566" s="24"/>
+      <c r="J566" s="20"/>
+      <c r="K566" s="21"/>
+    </row>
+    <row r="567" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H567" s="23"/>
+      <c r="I567" s="24"/>
+      <c r="J567" s="20"/>
+      <c r="K567" s="21"/>
+    </row>
+    <row r="568" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H568" s="23"/>
+      <c r="I568" s="24"/>
+      <c r="J568" s="20"/>
+      <c r="K568" s="21"/>
+    </row>
+    <row r="569" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H569" s="23"/>
+      <c r="I569" s="24"/>
+      <c r="J569" s="20"/>
+      <c r="K569" s="21"/>
+    </row>
+    <row r="570" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H570" s="23"/>
+      <c r="I570" s="24"/>
+      <c r="J570" s="20"/>
+      <c r="K570" s="21"/>
+    </row>
+    <row r="571" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H571" s="23"/>
+      <c r="I571" s="24"/>
+      <c r="J571" s="20"/>
+      <c r="K571" s="21"/>
+    </row>
+    <row r="572" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H572" s="23"/>
+      <c r="I572" s="24"/>
+      <c r="J572" s="20"/>
+      <c r="K572" s="21"/>
+    </row>
+    <row r="573" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H573" s="23"/>
+      <c r="I573" s="24"/>
+      <c r="J573" s="20"/>
+      <c r="K573" s="21"/>
+    </row>
+    <row r="574" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H574" s="23"/>
+      <c r="I574" s="24"/>
+      <c r="J574" s="20"/>
+      <c r="K574" s="21"/>
+    </row>
+    <row r="575" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H575" s="23"/>
+      <c r="I575" s="24"/>
+      <c r="J575" s="20"/>
+      <c r="K575" s="21"/>
+    </row>
+    <row r="576" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H576" s="23"/>
+      <c r="I576" s="24"/>
+      <c r="J576" s="20"/>
+      <c r="K576" s="21"/>
+    </row>
+    <row r="577" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H577" s="23"/>
+      <c r="I577" s="24"/>
+      <c r="J577" s="20"/>
+      <c r="K577" s="21"/>
+    </row>
+    <row r="578" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H578" s="23"/>
+      <c r="I578" s="24"/>
+      <c r="J578" s="20"/>
+      <c r="K578" s="21"/>
+    </row>
+    <row r="579" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H579" s="23"/>
+      <c r="I579" s="24"/>
+      <c r="J579" s="20"/>
+      <c r="K579" s="21"/>
+    </row>
+    <row r="580" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H580" s="23"/>
+      <c r="I580" s="24"/>
+      <c r="J580" s="20"/>
+      <c r="K580" s="21"/>
+    </row>
+    <row r="581" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H581" s="23"/>
+      <c r="I581" s="24"/>
+      <c r="J581" s="20"/>
+      <c r="K581" s="21"/>
+    </row>
+    <row r="582" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H582" s="23"/>
+      <c r="I582" s="24"/>
+      <c r="J582" s="20"/>
+      <c r="K582" s="21"/>
+    </row>
+    <row r="583" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H583" s="23"/>
+      <c r="I583" s="24"/>
+      <c r="J583" s="20"/>
+      <c r="K583" s="21"/>
+    </row>
+    <row r="584" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H584" s="23"/>
+      <c r="I584" s="24"/>
+      <c r="J584" s="20"/>
+      <c r="K584" s="21"/>
+    </row>
+    <row r="585" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H585" s="23"/>
+      <c r="I585" s="24"/>
+      <c r="J585" s="20"/>
+      <c r="K585" s="21"/>
+    </row>
+    <row r="586" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H586" s="23"/>
+      <c r="I586" s="24"/>
+      <c r="J586" s="20"/>
+      <c r="K586" s="21"/>
+    </row>
+    <row r="587" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H587" s="23"/>
+      <c r="I587" s="24"/>
+      <c r="J587" s="20"/>
+      <c r="K587" s="21"/>
+    </row>
+    <row r="588" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H588" s="23"/>
+      <c r="I588" s="24"/>
+      <c r="J588" s="20"/>
+      <c r="K588" s="21"/>
+    </row>
+    <row r="589" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H589" s="23"/>
+      <c r="I589" s="24"/>
+      <c r="J589" s="20"/>
+      <c r="K589" s="21"/>
+    </row>
+    <row r="590" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H590" s="23"/>
+      <c r="I590" s="24"/>
+      <c r="J590" s="20"/>
+      <c r="K590" s="21"/>
+    </row>
+    <row r="591" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H591" s="23"/>
+      <c r="I591" s="24"/>
+      <c r="J591" s="20"/>
+      <c r="K591" s="21"/>
+    </row>
+    <row r="592" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H592" s="23"/>
+      <c r="I592" s="24"/>
+      <c r="J592" s="20"/>
+      <c r="K592" s="21"/>
+    </row>
+    <row r="593" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H593" s="23"/>
+      <c r="I593" s="24"/>
+      <c r="J593" s="20"/>
+      <c r="K593" s="21"/>
+    </row>
+    <row r="594" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H594" s="23"/>
+      <c r="I594" s="24"/>
+      <c r="J594" s="20"/>
+      <c r="K594" s="21"/>
+    </row>
+    <row r="595" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H595" s="23"/>
+      <c r="I595" s="24"/>
+      <c r="J595" s="20"/>
+      <c r="K595" s="21"/>
+    </row>
+    <row r="596" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H596" s="23"/>
+      <c r="I596" s="24"/>
+      <c r="J596" s="20"/>
+      <c r="K596" s="21"/>
+    </row>
+    <row r="597" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H597" s="23"/>
+      <c r="I597" s="24"/>
+      <c r="J597" s="20"/>
+      <c r="K597" s="21"/>
+    </row>
+    <row r="598" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H598" s="23"/>
+      <c r="I598" s="24"/>
+      <c r="J598" s="20"/>
+      <c r="K598" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A6:A63">
       <formula1>" ,Yes"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="What is a Soft Cost?" prompt="Soft costs are budget line items that cannot be verified by a third party inspector. Builders Capital may require additional evidence for soft cost items in order to disburse construction draw funds." sqref="C21:C23"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Character Limit" error="Too many characters entered, please revise to be less than 50. " sqref="E6:E62">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Character Limit" error="Too many characters entered, please revise to be less than 50. " sqref="F6:F62">
       <formula1>50</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="What is a Soft Cost?" prompt="Soft costs are budget line items that cannot be verified by a third party inspector. Builders Capital may require additional evidence for soft cost items in order to disburse construction draw funds." sqref="C6:C11 C58:C59 C61:C62"/>
